--- a/state_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
+++ b/state_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U167"/>
+  <dimension ref="A1:U183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1153,7 +1153,7 @@
         <v>0.0392</v>
       </c>
       <c r="G9" t="n">
-        <v>0.125390321992496</v>
+        <v>0.125390957193042</v>
       </c>
       <c r="H9" t="n">
         <v>1.99625151910216</v>
@@ -1234,7 +1234,7 @@
         <v>0.0392</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125390321992496</v>
+        <v>0.125390957193042</v>
       </c>
       <c r="H10" t="n">
         <v>1.99625151910216</v>
@@ -1315,7 +1315,7 @@
         <v>0.484</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4064506078049</v>
+        <v>1.40652126935725</v>
       </c>
       <c r="H11" t="n">
         <v>9.423299999999999</v>
@@ -1396,7 +1396,7 @@
         <v>0.484</v>
       </c>
       <c r="G12" t="n">
-        <v>1.4064506078049</v>
+        <v>1.40652126935725</v>
       </c>
       <c r="H12" t="n">
         <v>9.423299999999999</v>
@@ -1470,13 +1470,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6838</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51342372881356</v>
+        <v>1.51341694915254</v>
       </c>
       <c r="H13" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I13" t="n">
         <v>8.18825</v>
@@ -1547,13 +1547,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.6838</v>
       </c>
       <c r="G14" t="n">
-        <v>1.51342372881356</v>
+        <v>1.51341694915254</v>
       </c>
       <c r="H14" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I14" t="n">
         <v>8.18825</v>
@@ -2441,7 +2441,7 @@
         <v>0.0422</v>
       </c>
       <c r="G25" t="n">
-        <v>0.139613139996609</v>
+        <v>0.139613786341024</v>
       </c>
       <c r="H25" t="n">
         <v>1.99625151910216</v>
@@ -2522,7 +2522,7 @@
         <v>0.0422</v>
       </c>
       <c r="G26" t="n">
-        <v>0.139613139996609</v>
+        <v>0.139613786341024</v>
       </c>
       <c r="H26" t="n">
         <v>1.99625151910216</v>
@@ -2603,7 +2603,7 @@
         <v>0.3756</v>
       </c>
       <c r="G27" t="n">
-        <v>1.05064203021085</v>
+        <v>1.0507007152289</v>
       </c>
       <c r="H27" t="n">
         <v>9.423299999999999</v>
@@ -2684,7 +2684,7 @@
         <v>0.3756</v>
       </c>
       <c r="G28" t="n">
-        <v>1.05064203021085</v>
+        <v>1.0507007152289</v>
       </c>
       <c r="H28" t="n">
         <v>9.423299999999999</v>
@@ -2758,13 +2758,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.715</v>
+        <v>0.7146</v>
       </c>
       <c r="G29" t="n">
-        <v>1.32827118644068</v>
+        <v>1.3282593220339</v>
       </c>
       <c r="H29" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I29" t="n">
         <v>6.6556</v>
@@ -2772,7 +2772,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>0.236</v>
+        <v>0.2362</v>
       </c>
       <c r="M29" t="n">
         <v>2.02251</v>
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.715</v>
+        <v>0.7146</v>
       </c>
       <c r="G30" t="n">
-        <v>1.32827118644068</v>
+        <v>1.3282593220339</v>
       </c>
       <c r="H30" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I30" t="n">
         <v>6.6556</v>
@@ -2849,7 +2849,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>0.236</v>
+        <v>0.2362</v>
       </c>
       <c r="M30" t="n">
         <v>2.02251</v>
@@ -3729,7 +3729,7 @@
         <v>0.07307</v>
       </c>
       <c r="G41" t="n">
-        <v>0.172321934326746</v>
+        <v>0.172323567152406</v>
       </c>
       <c r="H41" t="n">
         <v>1.99625151910216</v>
@@ -3810,7 +3810,7 @@
         <v>0.07307</v>
       </c>
       <c r="G42" t="n">
-        <v>0.172321934326746</v>
+        <v>0.172323567152406</v>
       </c>
       <c r="H42" t="n">
         <v>1.99625151910216</v>
@@ -4049,10 +4049,10 @@
         <v>0.8055</v>
       </c>
       <c r="G45" t="n">
-        <v>1.51815</v>
+        <v>1.51814333333333</v>
       </c>
       <c r="H45" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I45" t="n">
         <v>6.518</v>
@@ -4060,13 +4060,13 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>0.3455</v>
+        <v>0.34535</v>
       </c>
       <c r="M45" t="n">
         <v>2.611</v>
       </c>
       <c r="N45" t="n">
-        <v>4.4995</v>
+        <v>4.49959</v>
       </c>
       <c r="O45" t="n">
         <v>1811681.523</v>
@@ -4126,10 +4126,10 @@
         <v>0.8055</v>
       </c>
       <c r="G46" t="n">
-        <v>1.51815</v>
+        <v>1.51814333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I46" t="n">
         <v>6.518</v>
@@ -4137,13 +4137,13 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>0.3455</v>
+        <v>0.34535</v>
       </c>
       <c r="M46" t="n">
         <v>2.611</v>
       </c>
       <c r="N46" t="n">
-        <v>4.4995</v>
+        <v>4.49959</v>
       </c>
       <c r="O46" t="n">
         <v>1811681.523</v>
@@ -5098,7 +5098,7 @@
         <v>0.09898999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>0.29118972415958</v>
+        <v>0.29119135698524</v>
       </c>
       <c r="H58" t="n">
         <v>1.99625151910216</v>
@@ -5179,7 +5179,7 @@
         <v>0.09898999999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>0.29118972415958</v>
+        <v>0.29119135698524</v>
       </c>
       <c r="H59" t="n">
         <v>1.99625151910216</v>
@@ -5418,21 +5418,21 @@
         <v>1.069</v>
       </c>
       <c r="G62" t="n">
-        <v>1.56993333333333</v>
+        <v>1.56992666666667</v>
       </c>
       <c r="H62" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I62" t="n">
-        <v>4.382</v>
+        <v>4.38215</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
-        <v>0.7075</v>
+        <v>0.70745</v>
       </c>
       <c r="M62" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N62" t="n">
         <v>3.676</v>
@@ -5495,21 +5495,21 @@
         <v>1.069</v>
       </c>
       <c r="G63" t="n">
-        <v>1.56993333333333</v>
+        <v>1.56992666666667</v>
       </c>
       <c r="H63" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I63" t="n">
-        <v>4.382</v>
+        <v>4.38215</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.7075</v>
+        <v>0.70745</v>
       </c>
       <c r="M63" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N63" t="n">
         <v>3.676</v>
@@ -6467,7 +6467,7 @@
         <v>0.07426000000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>0.245080478850105</v>
+        <v>0.245082111675764</v>
       </c>
       <c r="H75" t="n">
         <v>1.83238577567139</v>
@@ -6548,7 +6548,7 @@
         <v>0.07426000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>0.245080478850105</v>
+        <v>0.245082111675764</v>
       </c>
       <c r="H76" t="n">
         <v>1.83238577567139</v>
@@ -6787,21 +6787,21 @@
         <v>0.905</v>
       </c>
       <c r="G79" t="n">
-        <v>1.47503333333333</v>
+        <v>1.47502666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I79" t="n">
-        <v>3.912</v>
+        <v>3.91215</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.3695</v>
+        <v>0.36965</v>
       </c>
       <c r="M79" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N79" t="n">
         <v>3.174</v>
@@ -6864,21 +6864,21 @@
         <v>0.905</v>
       </c>
       <c r="G80" t="n">
-        <v>1.47503333333333</v>
+        <v>1.47502666666667</v>
       </c>
       <c r="H80" t="n">
-        <v>9.538</v>
+        <v>9.5381</v>
       </c>
       <c r="I80" t="n">
-        <v>3.912</v>
+        <v>3.91215</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.3695</v>
+        <v>0.36965</v>
       </c>
       <c r="M80" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N80" t="n">
         <v>3.174</v>
@@ -7836,7 +7836,7 @@
         <v>0.08927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.300492671500819</v>
+        <v>0.300494332972543</v>
       </c>
       <c r="H92" t="n">
         <v>1.83238577567139</v>
@@ -7917,7 +7917,7 @@
         <v>0.08927</v>
       </c>
       <c r="G93" t="n">
-        <v>0.300492671500819</v>
+        <v>0.300494332972543</v>
       </c>
       <c r="H93" t="n">
         <v>1.83238577567139</v>
@@ -8156,7 +8156,7 @@
         <v>1.225</v>
       </c>
       <c r="G96" t="n">
-        <v>1.5154</v>
+        <v>1.51539666666667</v>
       </c>
       <c r="H96" t="n">
         <v>4.73</v>
@@ -8167,10 +8167,10 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>1.0445</v>
+        <v>1.04455</v>
       </c>
       <c r="M96" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N96" t="n">
         <v>3.174</v>
@@ -8233,7 +8233,7 @@
         <v>1.225</v>
       </c>
       <c r="G97" t="n">
-        <v>1.5154</v>
+        <v>1.51539666666667</v>
       </c>
       <c r="H97" t="n">
         <v>4.73</v>
@@ -8244,10 +8244,10 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>1.0445</v>
+        <v>1.04455</v>
       </c>
       <c r="M97" t="n">
-        <v>2.7366</v>
+        <v>2.73666</v>
       </c>
       <c r="N97" t="n">
         <v>3.174</v>
@@ -9205,7 +9205,7 @@
         <v>0.10715</v>
       </c>
       <c r="G109" t="n">
-        <v>0.326278385543199</v>
+        <v>0.326280047014922</v>
       </c>
       <c r="H109" t="n">
         <v>1.83238577567139</v>
@@ -9286,7 +9286,7 @@
         <v>0.10715</v>
       </c>
       <c r="G110" t="n">
-        <v>0.326278385543199</v>
+        <v>0.326280047014922</v>
       </c>
       <c r="H110" t="n">
         <v>1.83238577567139</v>
@@ -9522,24 +9522,24 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1.366</v>
+        <v>1.3661</v>
       </c>
       <c r="G113" t="n">
-        <v>1.60558333333333</v>
+        <v>1.605585</v>
       </c>
       <c r="H113" t="n">
         <v>4.73</v>
       </c>
       <c r="I113" t="n">
-        <v>4.007</v>
+        <v>4.00715</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
-        <v>1.0445</v>
+        <v>1.04455</v>
       </c>
       <c r="M113" t="n">
-        <v>2.9141</v>
+        <v>2.91389</v>
       </c>
       <c r="N113" t="n">
         <v>3.673</v>
@@ -9599,24 +9599,24 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.366</v>
+        <v>1.3661</v>
       </c>
       <c r="G114" t="n">
-        <v>1.60558333333333</v>
+        <v>1.605585</v>
       </c>
       <c r="H114" t="n">
         <v>4.73</v>
       </c>
       <c r="I114" t="n">
-        <v>4.007</v>
+        <v>4.00715</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
-        <v>1.0445</v>
+        <v>1.04455</v>
       </c>
       <c r="M114" t="n">
-        <v>2.9141</v>
+        <v>2.91389</v>
       </c>
       <c r="N114" t="n">
         <v>3.673</v>
@@ -12024,7 +12024,7 @@
         <v>0.2835</v>
       </c>
       <c r="G144" t="n">
-        <v>0.746607710696396</v>
+        <v>0.746616822399917</v>
       </c>
       <c r="H144" t="n">
         <v>4.64</v>
@@ -12105,7 +12105,7 @@
         <v>0.2835</v>
       </c>
       <c r="G145" t="n">
-        <v>0.746607710696396</v>
+        <v>0.746616822399917</v>
       </c>
       <c r="H145" t="n">
         <v>4.64</v>
@@ -13312,7 +13312,7 @@
         <v>0.243</v>
       </c>
       <c r="G160" t="n">
-        <v>0.698881530182297</v>
+        <v>0.698890801740266</v>
       </c>
       <c r="H160" t="n">
         <v>4.64</v>
@@ -13393,7 +13393,7 @@
         <v>0.243</v>
       </c>
       <c r="G161" t="n">
-        <v>0.698881530182297</v>
+        <v>0.698890801740266</v>
       </c>
       <c r="H161" t="n">
         <v>4.64</v>
@@ -13906,6 +13906,1294 @@
         </is>
       </c>
     </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.127614035087719</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.12053</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P168" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.127614035087719</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0.6721</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>0.0555</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0.12053</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="O169" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P169" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>550</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2143.84210526316</v>
+      </c>
+      <c r="H170" t="n">
+        <v>41000</v>
+      </c>
+      <c r="I170" t="n">
+        <v>7561.2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>50.8771929824561</v>
+      </c>
+      <c r="K170" t="n">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1115</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2424</v>
+      </c>
+      <c r="N170" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P170" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>550</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2143.84210526316</v>
+      </c>
+      <c r="H171" t="n">
+        <v>41000</v>
+      </c>
+      <c r="I171" t="n">
+        <v>7561.2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>50.8771929824561</v>
+      </c>
+      <c r="K171" t="n">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1115</v>
+      </c>
+      <c r="M171" t="n">
+        <v>2424</v>
+      </c>
+      <c r="N171" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O171" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P171" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>550</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2143.84210526316</v>
+      </c>
+      <c r="H172" t="n">
+        <v>41000</v>
+      </c>
+      <c r="I172" t="n">
+        <v>7561.2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>50.8771929824561</v>
+      </c>
+      <c r="K172" t="n">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1115</v>
+      </c>
+      <c r="M172" t="n">
+        <v>2424</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P172" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>550</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2143.84210526316</v>
+      </c>
+      <c r="H173" t="n">
+        <v>41000</v>
+      </c>
+      <c r="I173" t="n">
+        <v>7561.2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>50.8771929824561</v>
+      </c>
+      <c r="K173" t="n">
+        <v>71.92982456140351</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1115</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2424</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4800</v>
+      </c>
+      <c r="O173" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.06222</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.249785303421946</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2.71906648967442</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1.03894</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>0.09723999999999999</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0.55171</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0.9129699999999999</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.06222</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.249785303421946</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2.71906648967442</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1.03894</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0.09723999999999999</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0.55171</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0.9129699999999999</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P175" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.674732907003424</v>
+      </c>
+      <c r="H176" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.1885</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="M176" t="n">
+        <v>1.1305</v>
+      </c>
+      <c r="N176" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="O176" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P176" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.674732907003424</v>
+      </c>
+      <c r="H177" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.1885</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1.1305</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2.531</v>
+      </c>
+      <c r="O177" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P177" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.26859649122807</v>
+      </c>
+      <c r="H178" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2.6362</v>
+      </c>
+      <c r="N178" t="n">
+        <v>3.5187</v>
+      </c>
+      <c r="O178" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P178" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.26859649122807</v>
+      </c>
+      <c r="H179" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="I179" t="n">
+        <v>4.032</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>0.4645</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2.6362</v>
+      </c>
+      <c r="N179" t="n">
+        <v>3.5187</v>
+      </c>
+      <c r="O179" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P179" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="H180" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="I180" t="n">
+        <v>5.218</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3.5407</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4.7076</v>
+      </c>
+      <c r="O180" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P180" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2.03333333333333</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="I181" t="n">
+        <v>5.218</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1.105</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3.5407</v>
+      </c>
+      <c r="N181" t="n">
+        <v>4.7076</v>
+      </c>
+      <c r="O181" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P181" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.254842105263158</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0.98445</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0.37701</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0.5508999999999999</v>
+      </c>
+      <c r="O182" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P182" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Rangitawa Stream at ds Halcombe oxpond</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.139</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.254842105263158</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0.98445</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0.37701</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0.5508999999999999</v>
+      </c>
+      <c r="O183" t="n">
+        <v>1811681.523</v>
+      </c>
+      <c r="P183" t="n">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>Coastal Rangitikei</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>Rang_4a</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
+++ b/state_results/Rivers/RangitawaStreamatdsHalcombeoxpond_4207427b4f.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
   </si>
   <si>
     <t>Impact</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U183"/>
+  <dimension ref="A1:U199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -660,7 +663,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1.25</v>
@@ -675,7 +678,7 @@
         <v>3.17</v>
       </c>
       <c r="L2">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="M2">
         <v>2.353</v>
@@ -690,19 +693,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -719,7 +722,7 @@
         <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>0.045</v>
@@ -734,7 +737,7 @@
         <v>0.50575</v>
       </c>
       <c r="L3">
-        <v>0.0355</v>
+        <v>0.0315</v>
       </c>
       <c r="M3">
         <v>0.09829</v>
@@ -749,19 +752,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -778,7 +781,7 @@
         <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>0.045</v>
@@ -793,7 +796,7 @@
         <v>0.50575</v>
       </c>
       <c r="L4">
-        <v>0.0355</v>
+        <v>0.0315</v>
       </c>
       <c r="M4">
         <v>0.09829</v>
@@ -808,19 +811,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -837,13 +840,13 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F5">
         <v>836</v>
       </c>
       <c r="G5">
-        <v>5861.83050847458</v>
+        <v>5861.83559322034</v>
       </c>
       <c r="H5">
         <v>141361</v>
@@ -858,7 +861,7 @@
         <v>84.7457627118644</v>
       </c>
       <c r="L5">
-        <v>735</v>
+        <v>589.5</v>
       </c>
       <c r="M5">
         <v>7210.3</v>
@@ -873,19 +876,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -902,13 +905,13 @@
         <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>836</v>
       </c>
       <c r="G6">
-        <v>5861.83050847458</v>
+        <v>5861.83559322034</v>
       </c>
       <c r="H6">
         <v>141361</v>
@@ -923,7 +926,7 @@
         <v>84.7457627118644</v>
       </c>
       <c r="L6">
-        <v>735</v>
+        <v>589.5</v>
       </c>
       <c r="M6">
         <v>7210.3</v>
@@ -938,19 +941,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -967,13 +970,13 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7">
         <v>836</v>
       </c>
       <c r="G7">
-        <v>5861.83050847458</v>
+        <v>5861.83559322034</v>
       </c>
       <c r="H7">
         <v>141361</v>
@@ -988,7 +991,7 @@
         <v>84.7457627118644</v>
       </c>
       <c r="L7">
-        <v>735</v>
+        <v>589.5</v>
       </c>
       <c r="M7">
         <v>7210.3</v>
@@ -1003,19 +1006,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1032,13 +1035,13 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8">
         <v>836</v>
       </c>
       <c r="G8">
-        <v>5861.83050847458</v>
+        <v>5861.83559322034</v>
       </c>
       <c r="H8">
         <v>141361</v>
@@ -1053,7 +1056,7 @@
         <v>84.7457627118644</v>
       </c>
       <c r="L8">
-        <v>735</v>
+        <v>589.5</v>
       </c>
       <c r="M8">
         <v>7210.3</v>
@@ -1068,19 +1071,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1097,13 +1100,13 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9">
         <v>0.0392</v>
       </c>
       <c r="G9">
-        <v>0.125390957193042</v>
+        <v>0.125391715729979</v>
       </c>
       <c r="H9">
         <v>1.99625151910216</v>
@@ -1127,19 +1130,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1156,13 +1159,13 @@
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10">
         <v>0.0392</v>
       </c>
       <c r="G10">
-        <v>0.125390957193042</v>
+        <v>0.125391715729979</v>
       </c>
       <c r="H10">
         <v>1.99625151910216</v>
@@ -1186,19 +1189,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1215,13 +1218,13 @@
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11">
         <v>0.484</v>
       </c>
       <c r="G11">
-        <v>1.40652126935725</v>
+        <v>1.40651407539748</v>
       </c>
       <c r="H11">
         <v>9.423299999999999</v>
@@ -1230,7 +1233,7 @@
         <v>8.163320000000001</v>
       </c>
       <c r="L11">
-        <v>0.0674</v>
+        <v>0.09064999999999999</v>
       </c>
       <c r="M11">
         <v>1.8435</v>
@@ -1245,19 +1248,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1274,13 +1277,13 @@
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>0.484</v>
       </c>
       <c r="G12">
-        <v>1.40652126935725</v>
+        <v>1.40651407539748</v>
       </c>
       <c r="H12">
         <v>9.423299999999999</v>
@@ -1289,7 +1292,7 @@
         <v>8.163320000000001</v>
       </c>
       <c r="L12">
-        <v>0.0674</v>
+        <v>0.09064999999999999</v>
       </c>
       <c r="M12">
         <v>1.8435</v>
@@ -1304,19 +1307,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1330,7 +1333,7 @@
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F13">
         <v>0.6838</v>
@@ -1345,7 +1348,7 @@
         <v>8.18825</v>
       </c>
       <c r="L13">
-        <v>0.1285</v>
+        <v>0.2065</v>
       </c>
       <c r="M13">
         <v>2.6229</v>
@@ -1360,19 +1363,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1386,7 +1389,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14">
         <v>0.6838</v>
@@ -1401,7 +1404,7 @@
         <v>8.18825</v>
       </c>
       <c r="L14">
-        <v>0.1285</v>
+        <v>0.2065</v>
       </c>
       <c r="M14">
         <v>2.6229</v>
@@ -1416,19 +1419,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1442,7 +1445,7 @@
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>1.72</v>
@@ -1457,7 +1460,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L15">
-        <v>0.77</v>
+        <v>0.804</v>
       </c>
       <c r="M15">
         <v>3.841</v>
@@ -1472,19 +1475,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1498,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F16">
         <v>1.72</v>
@@ -1513,7 +1516,7 @@
         <v>9.619999999999999</v>
       </c>
       <c r="L16">
-        <v>0.77</v>
+        <v>0.804</v>
       </c>
       <c r="M16">
         <v>3.841</v>
@@ -1528,19 +1531,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1554,7 +1557,7 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>0.125</v>
@@ -1569,7 +1572,7 @@
         <v>1.0494</v>
       </c>
       <c r="L17">
-        <v>0.124</v>
+        <v>0.1115</v>
       </c>
       <c r="M17">
         <v>0.39781</v>
@@ -1584,19 +1587,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1610,7 +1613,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>0.125</v>
@@ -1625,7 +1628,7 @@
         <v>1.0494</v>
       </c>
       <c r="L18">
-        <v>0.124</v>
+        <v>0.1115</v>
       </c>
       <c r="M18">
         <v>0.39781</v>
@@ -1640,19 +1643,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1669,7 +1672,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>0.056</v>
@@ -1684,7 +1687,7 @@
         <v>0.64645</v>
       </c>
       <c r="L19">
-        <v>0.0515</v>
+        <v>0.0505</v>
       </c>
       <c r="M19">
         <v>0.20299</v>
@@ -1699,19 +1702,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1728,7 +1731,7 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>0.056</v>
@@ -1743,7 +1746,7 @@
         <v>0.64645</v>
       </c>
       <c r="L20">
-        <v>0.0515</v>
+        <v>0.0505</v>
       </c>
       <c r="M20">
         <v>0.20299</v>
@@ -1758,19 +1761,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1787,7 +1790,7 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21">
         <v>953</v>
@@ -1823,19 +1826,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1852,7 +1855,7 @@
         <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F22">
         <v>953</v>
@@ -1888,19 +1891,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1917,7 +1920,7 @@
         <v>45</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>953</v>
@@ -1953,19 +1956,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -1982,7 +1985,7 @@
         <v>45</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F24">
         <v>953</v>
@@ -2018,19 +2021,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2047,13 +2050,13 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25">
         <v>0.0422</v>
       </c>
       <c r="G25">
-        <v>0.139613786341024</v>
+        <v>0.139614558185626</v>
       </c>
       <c r="H25">
         <v>1.99625151910216</v>
@@ -2062,7 +2065,7 @@
         <v>0.51933</v>
       </c>
       <c r="L25">
-        <v>0.03677</v>
+        <v>0.03993</v>
       </c>
       <c r="M25">
         <v>0.17298</v>
@@ -2077,19 +2080,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2106,13 +2109,13 @@
         <v>45</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26">
         <v>0.0422</v>
       </c>
       <c r="G26">
-        <v>0.139613786341024</v>
+        <v>0.139614558185626</v>
       </c>
       <c r="H26">
         <v>1.99625151910216</v>
@@ -2121,7 +2124,7 @@
         <v>0.51933</v>
       </c>
       <c r="L26">
-        <v>0.03677</v>
+        <v>0.03993</v>
       </c>
       <c r="M26">
         <v>0.17298</v>
@@ -2136,19 +2139,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2165,13 +2168,13 @@
         <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27">
         <v>0.3756</v>
       </c>
       <c r="G27">
-        <v>1.0507007152289</v>
+        <v>1.05069474058434</v>
       </c>
       <c r="H27">
         <v>9.423299999999999</v>
@@ -2180,7 +2183,7 @@
         <v>6.167</v>
       </c>
       <c r="L27">
-        <v>0.07464999999999999</v>
+        <v>0.0929</v>
       </c>
       <c r="M27">
         <v>1.25455</v>
@@ -2195,19 +2198,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2224,13 +2227,13 @@
         <v>45</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>0.3756</v>
       </c>
       <c r="G28">
-        <v>1.0507007152289</v>
+        <v>1.05069474058434</v>
       </c>
       <c r="H28">
         <v>9.423299999999999</v>
@@ -2239,7 +2242,7 @@
         <v>6.167</v>
       </c>
       <c r="L28">
-        <v>0.07464999999999999</v>
+        <v>0.0929</v>
       </c>
       <c r="M28">
         <v>1.25455</v>
@@ -2254,19 +2257,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2280,7 +2283,7 @@
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>0.7146</v>
@@ -2295,7 +2298,7 @@
         <v>6.6556</v>
       </c>
       <c r="L29">
-        <v>0.2362</v>
+        <v>0.32335</v>
       </c>
       <c r="M29">
         <v>2.02251</v>
@@ -2310,19 +2313,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R29" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2336,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="E30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30">
         <v>0.7146</v>
@@ -2351,7 +2354,7 @@
         <v>6.6556</v>
       </c>
       <c r="L30">
-        <v>0.2362</v>
+        <v>0.32335</v>
       </c>
       <c r="M30">
         <v>2.02251</v>
@@ -2366,19 +2369,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2392,7 +2395,7 @@
         <v>45</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31">
         <v>1.858</v>
@@ -2407,7 +2410,7 @@
         <v>8.455</v>
       </c>
       <c r="L31">
-        <v>1.095</v>
+        <v>1.1325</v>
       </c>
       <c r="M31">
         <v>3.42361</v>
@@ -2422,19 +2425,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2448,7 +2451,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F32">
         <v>1.858</v>
@@ -2463,7 +2466,7 @@
         <v>8.455</v>
       </c>
       <c r="L32">
-        <v>1.095</v>
+        <v>1.1325</v>
       </c>
       <c r="M32">
         <v>3.42361</v>
@@ -2478,19 +2481,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2504,7 +2507,7 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33">
         <v>0.177</v>
@@ -2519,7 +2522,7 @@
         <v>1.1862</v>
       </c>
       <c r="L33">
-        <v>0.2655</v>
+        <v>0.2315</v>
       </c>
       <c r="M33">
         <v>0.47782</v>
@@ -2534,19 +2537,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2560,7 +2563,7 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34">
         <v>0.177</v>
@@ -2575,7 +2578,7 @@
         <v>1.1862</v>
       </c>
       <c r="L34">
-        <v>0.2655</v>
+        <v>0.2315</v>
       </c>
       <c r="M34">
         <v>0.47782</v>
@@ -2590,19 +2593,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2619,7 +2622,7 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35">
         <v>0.09</v>
@@ -2634,7 +2637,7 @@
         <v>1.3995</v>
       </c>
       <c r="L35">
-        <v>0.1235</v>
+        <v>0.1</v>
       </c>
       <c r="M35">
         <v>0.4557</v>
@@ -2649,19 +2652,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2678,7 +2681,7 @@
         <v>46</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36">
         <v>0.09</v>
@@ -2693,7 +2696,7 @@
         <v>1.3995</v>
       </c>
       <c r="L36">
-        <v>0.1235</v>
+        <v>0.1</v>
       </c>
       <c r="M36">
         <v>0.4557</v>
@@ -2708,19 +2711,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2737,7 +2740,7 @@
         <v>46</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37">
         <v>996</v>
@@ -2758,7 +2761,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L37">
-        <v>892.5</v>
+        <v>927</v>
       </c>
       <c r="M37">
         <v>4899.1</v>
@@ -2773,19 +2776,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2802,7 +2805,7 @@
         <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38">
         <v>996</v>
@@ -2823,7 +2826,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L38">
-        <v>892.5</v>
+        <v>927</v>
       </c>
       <c r="M38">
         <v>4899.1</v>
@@ -2838,19 +2841,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R38" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -2867,7 +2870,7 @@
         <v>46</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39">
         <v>996</v>
@@ -2888,7 +2891,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L39">
-        <v>892.5</v>
+        <v>927</v>
       </c>
       <c r="M39">
         <v>4899.1</v>
@@ -2903,19 +2906,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -2932,7 +2935,7 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40">
         <v>996</v>
@@ -2953,7 +2956,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L40">
-        <v>892.5</v>
+        <v>927</v>
       </c>
       <c r="M40">
         <v>4899.1</v>
@@ -2968,19 +2971,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -2997,13 +3000,13 @@
         <v>46</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41">
         <v>0.07307</v>
       </c>
       <c r="G41">
-        <v>0.172323567152406</v>
+        <v>0.172325509029636</v>
       </c>
       <c r="H41">
         <v>1.99625151910216</v>
@@ -3027,19 +3030,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3056,13 +3059,13 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42">
         <v>0.07307</v>
       </c>
       <c r="G42">
-        <v>0.172323567152406</v>
+        <v>0.172325509029636</v>
       </c>
       <c r="H42">
         <v>1.99625151910216</v>
@@ -3086,19 +3089,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3115,7 +3118,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F43">
         <v>0.4309</v>
@@ -3130,7 +3133,7 @@
         <v>6.05</v>
       </c>
       <c r="L43">
-        <v>0.08355</v>
+        <v>0.1013</v>
       </c>
       <c r="M43">
         <v>1.67084</v>
@@ -3145,19 +3148,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3174,7 +3177,7 @@
         <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F44">
         <v>0.4309</v>
@@ -3189,7 +3192,7 @@
         <v>6.05</v>
       </c>
       <c r="L44">
-        <v>0.08355</v>
+        <v>0.1013</v>
       </c>
       <c r="M44">
         <v>1.67084</v>
@@ -3204,19 +3207,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3230,7 +3233,7 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45">
         <v>0.8055</v>
@@ -3245,7 +3248,7 @@
         <v>6.518</v>
       </c>
       <c r="L45">
-        <v>0.34535</v>
+        <v>0.3849</v>
       </c>
       <c r="M45">
         <v>2.611</v>
@@ -3260,19 +3263,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3286,7 +3289,7 @@
         <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F46">
         <v>0.8055</v>
@@ -3301,7 +3304,7 @@
         <v>6.518</v>
       </c>
       <c r="L46">
-        <v>0.34535</v>
+        <v>0.3849</v>
       </c>
       <c r="M46">
         <v>2.611</v>
@@ -3316,19 +3319,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3342,7 +3345,7 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47">
         <v>2.122</v>
@@ -3357,7 +3360,7 @@
         <v>8.35</v>
       </c>
       <c r="L47">
-        <v>1.5655</v>
+        <v>1.7335</v>
       </c>
       <c r="M47">
         <v>4.56</v>
@@ -3372,19 +3375,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3398,7 +3401,7 @@
         <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48">
         <v>2.122</v>
@@ -3413,7 +3416,7 @@
         <v>8.35</v>
       </c>
       <c r="L48">
-        <v>1.5655</v>
+        <v>1.7335</v>
       </c>
       <c r="M48">
         <v>4.56</v>
@@ -3428,19 +3431,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3454,7 +3457,7 @@
         <v>46</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F49">
         <v>0.2835</v>
@@ -3469,7 +3472,7 @@
         <v>2.28</v>
       </c>
       <c r="L49">
-        <v>0.321</v>
+        <v>0.3125</v>
       </c>
       <c r="M49">
         <v>1.0139</v>
@@ -3484,19 +3487,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3510,7 +3513,7 @@
         <v>46</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50">
         <v>0.2835</v>
@@ -3525,7 +3528,7 @@
         <v>2.28</v>
       </c>
       <c r="L50">
-        <v>0.321</v>
+        <v>0.3125</v>
       </c>
       <c r="M50">
         <v>1.0139</v>
@@ -3540,19 +3543,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3569,7 +3572,7 @@
         <v>47</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51">
         <v>0.37</v>
@@ -3584,7 +3587,7 @@
         <v>2.79</v>
       </c>
       <c r="L51">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="M51">
         <v>1.65408</v>
@@ -3599,19 +3602,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3628,7 +3631,7 @@
         <v>47</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52">
         <v>0.1455</v>
@@ -3643,7 +3646,7 @@
         <v>2.395</v>
       </c>
       <c r="L52">
-        <v>0.4365</v>
+        <v>0.3725</v>
       </c>
       <c r="M52">
         <v>1.1273</v>
@@ -3658,19 +3661,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3687,7 +3690,7 @@
         <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>0.1455</v>
@@ -3702,7 +3705,7 @@
         <v>2.395</v>
       </c>
       <c r="L53">
-        <v>0.4365</v>
+        <v>0.3725</v>
       </c>
       <c r="M53">
         <v>1.1273</v>
@@ -3717,19 +3720,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3746,7 +3749,7 @@
         <v>47</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F54">
         <v>1276</v>
@@ -3767,7 +3770,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L54">
-        <v>892.5</v>
+        <v>994.5</v>
       </c>
       <c r="M54">
         <v>6010</v>
@@ -3782,19 +3785,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -3811,7 +3814,7 @@
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F55">
         <v>1276</v>
@@ -3832,7 +3835,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L55">
-        <v>892.5</v>
+        <v>994.5</v>
       </c>
       <c r="M55">
         <v>6010</v>
@@ -3847,19 +3850,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -3876,7 +3879,7 @@
         <v>47</v>
       </c>
       <c r="E56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F56">
         <v>1276</v>
@@ -3897,7 +3900,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L56">
-        <v>892.5</v>
+        <v>994.5</v>
       </c>
       <c r="M56">
         <v>6010</v>
@@ -3912,19 +3915,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -3941,7 +3944,7 @@
         <v>47</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57">
         <v>1276</v>
@@ -3962,7 +3965,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L57">
-        <v>892.5</v>
+        <v>994.5</v>
       </c>
       <c r="M57">
         <v>6010</v>
@@ -3977,19 +3980,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T57" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4006,13 +4009,13 @@
         <v>47</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F58">
         <v>0.09898999999999999</v>
       </c>
       <c r="G58">
-        <v>0.29119135698524</v>
+        <v>0.29119329886247</v>
       </c>
       <c r="H58">
         <v>1.99625151910216</v>
@@ -4021,7 +4024,7 @@
         <v>1.3642</v>
       </c>
       <c r="L58">
-        <v>0.08284999999999999</v>
+        <v>0.11337</v>
       </c>
       <c r="M58">
         <v>0.55086</v>
@@ -4036,19 +4039,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U58" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4065,13 +4068,13 @@
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F59">
         <v>0.09898999999999999</v>
       </c>
       <c r="G59">
-        <v>0.29119135698524</v>
+        <v>0.29119329886247</v>
       </c>
       <c r="H59">
         <v>1.99625151910216</v>
@@ -4080,7 +4083,7 @@
         <v>1.3642</v>
       </c>
       <c r="L59">
-        <v>0.08284999999999999</v>
+        <v>0.11337</v>
       </c>
       <c r="M59">
         <v>0.55086</v>
@@ -4095,19 +4098,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4124,7 +4127,7 @@
         <v>47</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60">
         <v>0.3748</v>
@@ -4139,7 +4142,7 @@
         <v>3.2203</v>
       </c>
       <c r="L60">
-        <v>0.08890000000000001</v>
+        <v>0.1013</v>
       </c>
       <c r="M60">
         <v>1.52836</v>
@@ -4154,19 +4157,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S60" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4183,7 +4186,7 @@
         <v>47</v>
       </c>
       <c r="E61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F61">
         <v>0.3748</v>
@@ -4198,7 +4201,7 @@
         <v>3.2203</v>
       </c>
       <c r="L61">
-        <v>0.08890000000000001</v>
+        <v>0.1013</v>
       </c>
       <c r="M61">
         <v>1.52836</v>
@@ -4213,19 +4216,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4239,7 +4242,7 @@
         <v>47</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F62">
         <v>1.069</v>
@@ -4254,7 +4257,7 @@
         <v>4.38215</v>
       </c>
       <c r="L62">
-        <v>0.70745</v>
+        <v>0.71975</v>
       </c>
       <c r="M62">
         <v>2.73666</v>
@@ -4269,19 +4272,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U62" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4295,7 +4298,7 @@
         <v>47</v>
       </c>
       <c r="E63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F63">
         <v>1.069</v>
@@ -4310,7 +4313,7 @@
         <v>4.38215</v>
       </c>
       <c r="L63">
-        <v>0.70745</v>
+        <v>0.71975</v>
       </c>
       <c r="M63">
         <v>2.73666</v>
@@ -4325,19 +4328,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U63" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4351,7 +4354,7 @@
         <v>47</v>
       </c>
       <c r="E64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F64">
         <v>2.649</v>
@@ -4381,19 +4384,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R64" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4407,7 +4410,7 @@
         <v>47</v>
       </c>
       <c r="E65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F65">
         <v>2.649</v>
@@ -4437,19 +4440,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S65" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4463,7 +4466,7 @@
         <v>47</v>
       </c>
       <c r="E66" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F66">
         <v>0.382</v>
@@ -4478,7 +4481,7 @@
         <v>3.065</v>
       </c>
       <c r="L66">
-        <v>0.7145</v>
+        <v>0.643</v>
       </c>
       <c r="M66">
         <v>1.393</v>
@@ -4493,19 +4496,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4519,7 +4522,7 @@
         <v>47</v>
       </c>
       <c r="E67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F67">
         <v>0.382</v>
@@ -4534,7 +4537,7 @@
         <v>3.065</v>
       </c>
       <c r="L67">
-        <v>0.7145</v>
+        <v>0.643</v>
       </c>
       <c r="M67">
         <v>1.393</v>
@@ -4549,19 +4552,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4578,7 +4581,7 @@
         <v>48</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F68">
         <v>0.35</v>
@@ -4608,19 +4611,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4637,7 +4640,7 @@
         <v>48</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69">
         <v>0.1455</v>
@@ -4652,7 +4655,7 @@
         <v>2.395</v>
       </c>
       <c r="L69">
-        <v>0.4365</v>
+        <v>0.23</v>
       </c>
       <c r="M69">
         <v>0.9409</v>
@@ -4667,19 +4670,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q69" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -4696,7 +4699,7 @@
         <v>48</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70">
         <v>0.1455</v>
@@ -4711,7 +4714,7 @@
         <v>2.395</v>
       </c>
       <c r="L70">
-        <v>0.4365</v>
+        <v>0.23</v>
       </c>
       <c r="M70">
         <v>0.9409</v>
@@ -4726,19 +4729,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q70" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -4755,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71">
         <v>1072.5</v>
@@ -4776,7 +4779,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L71">
-        <v>892.5</v>
+        <v>1148.5</v>
       </c>
       <c r="M71">
         <v>8433.4</v>
@@ -4791,19 +4794,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T71" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -4820,7 +4823,7 @@
         <v>48</v>
       </c>
       <c r="E72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F72">
         <v>1072.5</v>
@@ -4841,7 +4844,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L72">
-        <v>892.5</v>
+        <v>1148.5</v>
       </c>
       <c r="M72">
         <v>8433.4</v>
@@ -4856,19 +4859,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -4885,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73">
         <v>1072.5</v>
@@ -4906,7 +4909,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L73">
-        <v>892.5</v>
+        <v>1148.5</v>
       </c>
       <c r="M73">
         <v>8433.4</v>
@@ -4921,19 +4924,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -4950,7 +4953,7 @@
         <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74">
         <v>1072.5</v>
@@ -4971,7 +4974,7 @@
         <v>91.6666666666667</v>
       </c>
       <c r="L74">
-        <v>892.5</v>
+        <v>1148.5</v>
       </c>
       <c r="M74">
         <v>8433.4</v>
@@ -4986,19 +4989,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q74" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5015,13 +5018,13 @@
         <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F75">
         <v>0.07426000000000001</v>
       </c>
       <c r="G75">
-        <v>0.245082111675764</v>
+        <v>0.245084053552994</v>
       </c>
       <c r="H75">
         <v>1.83238577567139</v>
@@ -5030,7 +5033,7 @@
         <v>1.19901</v>
       </c>
       <c r="L75">
-        <v>0.07489999999999999</v>
+        <v>0.10871</v>
       </c>
       <c r="M75">
         <v>0.46756</v>
@@ -5045,19 +5048,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R75" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5074,13 +5077,13 @@
         <v>48</v>
       </c>
       <c r="E76" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F76">
         <v>0.07426000000000001</v>
       </c>
       <c r="G76">
-        <v>0.245082111675764</v>
+        <v>0.245084053552994</v>
       </c>
       <c r="H76">
         <v>1.83238577567139</v>
@@ -5089,7 +5092,7 @@
         <v>1.19901</v>
       </c>
       <c r="L76">
-        <v>0.07489999999999999</v>
+        <v>0.10871</v>
       </c>
       <c r="M76">
         <v>0.46756</v>
@@ -5104,19 +5107,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q76" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R76" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U76" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5133,7 +5136,7 @@
         <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F77">
         <v>0.363</v>
@@ -5148,7 +5151,7 @@
         <v>2.83945</v>
       </c>
       <c r="L77">
-        <v>0.07405</v>
+        <v>0.0973</v>
       </c>
       <c r="M77">
         <v>1.782</v>
@@ -5163,19 +5166,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q77" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S77" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T77" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5192,7 +5195,7 @@
         <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F78">
         <v>0.363</v>
@@ -5207,7 +5210,7 @@
         <v>2.83945</v>
       </c>
       <c r="L78">
-        <v>0.07405</v>
+        <v>0.0973</v>
       </c>
       <c r="M78">
         <v>1.782</v>
@@ -5222,19 +5225,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T78" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U78" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5248,7 +5251,7 @@
         <v>48</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F79">
         <v>0.905</v>
@@ -5263,7 +5266,7 @@
         <v>3.91215</v>
       </c>
       <c r="L79">
-        <v>0.36965</v>
+        <v>0.7023</v>
       </c>
       <c r="M79">
         <v>2.73666</v>
@@ -5278,19 +5281,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T79" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U79" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5304,7 +5307,7 @@
         <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F80">
         <v>0.905</v>
@@ -5319,7 +5322,7 @@
         <v>3.91215</v>
       </c>
       <c r="L80">
-        <v>0.36965</v>
+        <v>0.7023</v>
       </c>
       <c r="M80">
         <v>2.73666</v>
@@ -5334,19 +5337,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U80" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5360,7 +5363,7 @@
         <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81">
         <v>2.629</v>
@@ -5375,7 +5378,7 @@
         <v>6.4275</v>
       </c>
       <c r="L81">
-        <v>2.195</v>
+        <v>2.347</v>
       </c>
       <c r="M81">
         <v>4.595</v>
@@ -5390,19 +5393,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U81" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5416,7 +5419,7 @@
         <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F82">
         <v>2.629</v>
@@ -5431,7 +5434,7 @@
         <v>6.4275</v>
       </c>
       <c r="L82">
-        <v>2.195</v>
+        <v>2.347</v>
       </c>
       <c r="M82">
         <v>4.595</v>
@@ -5446,19 +5449,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U82" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5472,7 +5475,7 @@
         <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F83">
         <v>0.3295</v>
@@ -5487,7 +5490,7 @@
         <v>3.065</v>
       </c>
       <c r="L83">
-        <v>0.7145</v>
+        <v>0.4875</v>
       </c>
       <c r="M83">
         <v>1.3174</v>
@@ -5502,19 +5505,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U83" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5528,7 +5531,7 @@
         <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F84">
         <v>0.3295</v>
@@ -5543,7 +5546,7 @@
         <v>3.065</v>
       </c>
       <c r="L84">
-        <v>0.7145</v>
+        <v>0.4875</v>
       </c>
       <c r="M84">
         <v>1.3174</v>
@@ -5558,19 +5561,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q84" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R84" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U84" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5587,7 +5590,7 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F85">
         <v>0.335</v>
@@ -5602,7 +5605,7 @@
         <v>1.12</v>
       </c>
       <c r="L85">
-        <v>0.335</v>
+        <v>0.32</v>
       </c>
       <c r="M85">
         <v>0.708</v>
@@ -5617,19 +5620,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -5646,7 +5649,7 @@
         <v>49</v>
       </c>
       <c r="E86" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F86">
         <v>0.149</v>
@@ -5661,7 +5664,7 @@
         <v>2.395</v>
       </c>
       <c r="L86">
-        <v>0.5505</v>
+        <v>0.311</v>
       </c>
       <c r="M86">
         <v>0.8061</v>
@@ -5676,19 +5679,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q86" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -5705,7 +5708,7 @@
         <v>49</v>
       </c>
       <c r="E87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F87">
         <v>0.149</v>
@@ -5720,7 +5723,7 @@
         <v>2.395</v>
       </c>
       <c r="L87">
-        <v>0.5505</v>
+        <v>0.311</v>
       </c>
       <c r="M87">
         <v>0.8061</v>
@@ -5735,19 +5738,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q87" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -5764,7 +5767,7 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F88">
         <v>1150</v>
@@ -5785,7 +5788,7 @@
         <v>90</v>
       </c>
       <c r="L88">
-        <v>875</v>
+        <v>1389.5</v>
       </c>
       <c r="M88">
         <v>6710</v>
@@ -5800,19 +5803,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q88" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R88" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S88" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -5829,7 +5832,7 @@
         <v>49</v>
       </c>
       <c r="E89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F89">
         <v>1150</v>
@@ -5850,7 +5853,7 @@
         <v>90</v>
       </c>
       <c r="L89">
-        <v>875</v>
+        <v>1389.5</v>
       </c>
       <c r="M89">
         <v>6710</v>
@@ -5865,19 +5868,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q89" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R89" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T89" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -5894,7 +5897,7 @@
         <v>49</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F90">
         <v>1150</v>
@@ -5915,7 +5918,7 @@
         <v>90</v>
       </c>
       <c r="L90">
-        <v>875</v>
+        <v>1389.5</v>
       </c>
       <c r="M90">
         <v>6710</v>
@@ -5930,19 +5933,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q90" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R90" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -5959,7 +5962,7 @@
         <v>49</v>
       </c>
       <c r="E91" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F91">
         <v>1150</v>
@@ -5980,7 +5983,7 @@
         <v>90</v>
       </c>
       <c r="L91">
-        <v>875</v>
+        <v>1389.5</v>
       </c>
       <c r="M91">
         <v>6710</v>
@@ -5995,19 +5998,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R91" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S91" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T91" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6024,13 +6027,13 @@
         <v>49</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F92">
         <v>0.08927</v>
       </c>
       <c r="G92">
-        <v>0.300494332972543</v>
+        <v>0.300496308917794</v>
       </c>
       <c r="H92">
         <v>1.83238577567139</v>
@@ -6039,7 +6042,7 @@
         <v>1.20308</v>
       </c>
       <c r="L92">
-        <v>0.36917</v>
+        <v>0.26608</v>
       </c>
       <c r="M92">
         <v>0.61865</v>
@@ -6054,19 +6057,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T92" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U92" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6083,13 +6086,13 @@
         <v>49</v>
       </c>
       <c r="E93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F93">
         <v>0.08927</v>
       </c>
       <c r="G93">
-        <v>0.300494332972543</v>
+        <v>0.300496308917794</v>
       </c>
       <c r="H93">
         <v>1.83238577567139</v>
@@ -6098,7 +6101,7 @@
         <v>1.20308</v>
       </c>
       <c r="L93">
-        <v>0.36917</v>
+        <v>0.26608</v>
       </c>
       <c r="M93">
         <v>0.61865</v>
@@ -6113,19 +6116,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q93" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R93" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S93" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U93" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6142,7 +6145,7 @@
         <v>49</v>
       </c>
       <c r="E94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F94">
         <v>0.3475</v>
@@ -6157,7 +6160,7 @@
         <v>2.64565</v>
       </c>
       <c r="L94">
-        <v>0.08890000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="M94">
         <v>1.67084</v>
@@ -6172,19 +6175,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R94" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S94" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T94" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U94" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6201,7 +6204,7 @@
         <v>49</v>
       </c>
       <c r="E95" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F95">
         <v>0.3475</v>
@@ -6216,7 +6219,7 @@
         <v>2.64565</v>
       </c>
       <c r="L95">
-        <v>0.08890000000000001</v>
+        <v>0.1275</v>
       </c>
       <c r="M95">
         <v>1.67084</v>
@@ -6231,19 +6234,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q95" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T95" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6257,7 +6260,7 @@
         <v>49</v>
       </c>
       <c r="E96" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F96">
         <v>1.225</v>
@@ -6272,7 +6275,7 @@
         <v>3.595</v>
       </c>
       <c r="L96">
-        <v>1.04455</v>
+        <v>1.25</v>
       </c>
       <c r="M96">
         <v>2.73666</v>
@@ -6287,19 +6290,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q96" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R96" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T96" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6313,7 +6316,7 @@
         <v>49</v>
       </c>
       <c r="E97" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F97">
         <v>1.225</v>
@@ -6328,7 +6331,7 @@
         <v>3.595</v>
       </c>
       <c r="L97">
-        <v>1.04455</v>
+        <v>1.25</v>
       </c>
       <c r="M97">
         <v>2.73666</v>
@@ -6343,19 +6346,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R97" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S97" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T97" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U97" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6369,7 +6372,7 @@
         <v>49</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F98">
         <v>2.649</v>
@@ -6384,7 +6387,7 @@
         <v>5.2375</v>
       </c>
       <c r="L98">
-        <v>3.105</v>
+        <v>3.04</v>
       </c>
       <c r="M98">
         <v>4.417</v>
@@ -6399,19 +6402,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q98" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R98" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U98" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6425,7 +6428,7 @@
         <v>49</v>
       </c>
       <c r="E99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F99">
         <v>2.649</v>
@@ -6440,7 +6443,7 @@
         <v>5.2375</v>
       </c>
       <c r="L99">
-        <v>3.105</v>
+        <v>3.04</v>
       </c>
       <c r="M99">
         <v>4.417</v>
@@ -6455,19 +6458,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q99" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R99" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U99" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6481,7 +6484,7 @@
         <v>49</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100">
         <v>0.3655</v>
@@ -6496,7 +6499,7 @@
         <v>3.065</v>
       </c>
       <c r="L100">
-        <v>1.116</v>
+        <v>0.5985</v>
       </c>
       <c r="M100">
         <v>1.46</v>
@@ -6511,19 +6514,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q100" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T100" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -6537,7 +6540,7 @@
         <v>49</v>
       </c>
       <c r="E101" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F101">
         <v>0.3655</v>
@@ -6552,7 +6555,7 @@
         <v>3.065</v>
       </c>
       <c r="L101">
-        <v>1.116</v>
+        <v>0.5985</v>
       </c>
       <c r="M101">
         <v>1.46</v>
@@ -6567,19 +6570,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T101" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U101" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -6596,7 +6599,7 @@
         <v>50</v>
       </c>
       <c r="E102" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F102">
         <v>0.32</v>
@@ -6611,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="L102">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="M102">
         <v>0.5645</v>
@@ -6626,19 +6629,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T102" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -6655,7 +6658,7 @@
         <v>50</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F103">
         <v>0.1145</v>
@@ -6670,7 +6673,7 @@
         <v>2.395</v>
       </c>
       <c r="L103">
-        <v>0.4055</v>
+        <v>0.2265</v>
       </c>
       <c r="M103">
         <v>0.8061</v>
@@ -6685,19 +6688,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q103" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T103" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U103" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -6714,7 +6717,7 @@
         <v>50</v>
       </c>
       <c r="E104" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F104">
         <v>0.1145</v>
@@ -6729,7 +6732,7 @@
         <v>2.395</v>
       </c>
       <c r="L104">
-        <v>0.4055</v>
+        <v>0.2265</v>
       </c>
       <c r="M104">
         <v>0.8061</v>
@@ -6744,19 +6747,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q104" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S104" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T104" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -6773,7 +6776,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F105">
         <v>1050</v>
@@ -6794,7 +6797,7 @@
         <v>90</v>
       </c>
       <c r="L105">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="M105">
         <v>4590</v>
@@ -6809,19 +6812,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S105" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -6838,7 +6841,7 @@
         <v>50</v>
       </c>
       <c r="E106" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F106">
         <v>1050</v>
@@ -6859,7 +6862,7 @@
         <v>90</v>
       </c>
       <c r="L106">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="M106">
         <v>4590</v>
@@ -6874,19 +6877,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q106" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R106" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -6903,7 +6906,7 @@
         <v>50</v>
       </c>
       <c r="E107" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F107">
         <v>1050</v>
@@ -6924,7 +6927,7 @@
         <v>90</v>
       </c>
       <c r="L107">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="M107">
         <v>4590</v>
@@ -6939,19 +6942,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q107" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R107" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T107" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -6968,7 +6971,7 @@
         <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F108">
         <v>1050</v>
@@ -6989,7 +6992,7 @@
         <v>90</v>
       </c>
       <c r="L108">
-        <v>825</v>
+        <v>1105</v>
       </c>
       <c r="M108">
         <v>4590</v>
@@ -7004,19 +7007,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q108" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T108" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7033,13 +7036,13 @@
         <v>50</v>
       </c>
       <c r="E109" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F109">
         <v>0.10715</v>
       </c>
       <c r="G109">
-        <v>0.326280047014922</v>
+        <v>0.326282022960174</v>
       </c>
       <c r="H109">
         <v>1.83238577567139</v>
@@ -7063,19 +7066,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R109" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T109" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U109" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7092,13 +7095,13 @@
         <v>50</v>
       </c>
       <c r="E110" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F110">
         <v>0.10715</v>
       </c>
       <c r="G110">
-        <v>0.326280047014922</v>
+        <v>0.326282022960174</v>
       </c>
       <c r="H110">
         <v>1.83238577567139</v>
@@ -7122,19 +7125,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q110" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R110" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T110" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U110" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7151,7 +7154,7 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F111">
         <v>0.3475</v>
@@ -7166,7 +7169,7 @@
         <v>2.83945</v>
       </c>
       <c r="L111">
-        <v>0.08699999999999999</v>
+        <v>0.1375</v>
       </c>
       <c r="M111">
         <v>1.67084</v>
@@ -7181,19 +7184,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q111" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R111" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T111" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U111" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7210,7 +7213,7 @@
         <v>50</v>
       </c>
       <c r="E112" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F112">
         <v>0.3475</v>
@@ -7225,7 +7228,7 @@
         <v>2.83945</v>
       </c>
       <c r="L112">
-        <v>0.08699999999999999</v>
+        <v>0.1375</v>
       </c>
       <c r="M112">
         <v>1.67084</v>
@@ -7240,19 +7243,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q112" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R112" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S112" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T112" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7266,7 +7269,7 @@
         <v>50</v>
       </c>
       <c r="E113" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F113">
         <v>1.3661</v>
@@ -7281,7 +7284,7 @@
         <v>4.00715</v>
       </c>
       <c r="L113">
-        <v>1.04455</v>
+        <v>1.4</v>
       </c>
       <c r="M113">
         <v>2.91389</v>
@@ -7296,19 +7299,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q113" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R113" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S113" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T113" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U113" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7322,7 +7325,7 @@
         <v>50</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F114">
         <v>1.3661</v>
@@ -7337,7 +7340,7 @@
         <v>4.00715</v>
       </c>
       <c r="L114">
-        <v>1.04455</v>
+        <v>1.4</v>
       </c>
       <c r="M114">
         <v>2.91389</v>
@@ -7352,19 +7355,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q114" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R114" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S114" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T114" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U114" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7378,7 +7381,7 @@
         <v>50</v>
       </c>
       <c r="E115" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F115">
         <v>2.672</v>
@@ -7393,7 +7396,7 @@
         <v>5.2375</v>
       </c>
       <c r="L115">
-        <v>3.105</v>
+        <v>3.04</v>
       </c>
       <c r="M115">
         <v>4.712</v>
@@ -7408,19 +7411,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q115" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R115" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T115" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U115" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -7434,7 +7437,7 @@
         <v>50</v>
       </c>
       <c r="E116" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F116">
         <v>2.672</v>
@@ -7449,7 +7452,7 @@
         <v>5.2375</v>
       </c>
       <c r="L116">
-        <v>3.105</v>
+        <v>3.04</v>
       </c>
       <c r="M116">
         <v>4.712</v>
@@ -7464,19 +7467,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q116" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R116" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T116" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U116" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -7490,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117">
         <v>0.2925</v>
@@ -7505,7 +7508,7 @@
         <v>3.065</v>
       </c>
       <c r="L117">
-        <v>0.9115</v>
+        <v>0.511</v>
       </c>
       <c r="M117">
         <v>1.46</v>
@@ -7520,19 +7523,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q117" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R117" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S117" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T117" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U117" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -7546,7 +7549,7 @@
         <v>50</v>
       </c>
       <c r="E118" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F118">
         <v>0.2925</v>
@@ -7561,7 +7564,7 @@
         <v>3.065</v>
       </c>
       <c r="L118">
-        <v>0.9115</v>
+        <v>0.511</v>
       </c>
       <c r="M118">
         <v>1.46</v>
@@ -7576,19 +7579,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R118" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T118" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U118" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -7605,7 +7608,7 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F119">
         <v>0.32</v>
@@ -7620,7 +7623,7 @@
         <v>0.66</v>
       </c>
       <c r="L119">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="M119">
         <v>0.4482</v>
@@ -7635,19 +7638,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q119" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R119" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T119" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -7664,7 +7667,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>0.0545</v>
@@ -7679,7 +7682,7 @@
         <v>2.238</v>
       </c>
       <c r="L120">
-        <v>0.123</v>
+        <v>0.135</v>
       </c>
       <c r="M120">
         <v>0.45876</v>
@@ -7694,19 +7697,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q120" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R120" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T120" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -7723,7 +7726,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F121">
         <v>0.0545</v>
@@ -7738,7 +7741,7 @@
         <v>2.238</v>
       </c>
       <c r="L121">
-        <v>0.123</v>
+        <v>0.135</v>
       </c>
       <c r="M121">
         <v>0.45876</v>
@@ -7753,19 +7756,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q121" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R121" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T121" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U121" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -7782,7 +7785,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F122">
         <v>840</v>
@@ -7803,7 +7806,7 @@
         <v>86.2068965517241</v>
       </c>
       <c r="L122">
-        <v>810</v>
+        <v>1085</v>
       </c>
       <c r="M122">
         <v>4392</v>
@@ -7818,19 +7821,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q122" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R122" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T122" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U122" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -7847,7 +7850,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F123">
         <v>840</v>
@@ -7868,7 +7871,7 @@
         <v>86.2068965517241</v>
       </c>
       <c r="L123">
-        <v>810</v>
+        <v>1085</v>
       </c>
       <c r="M123">
         <v>4392</v>
@@ -7883,19 +7886,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q123" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R123" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S123" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T123" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U123" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -7912,7 +7915,7 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F124">
         <v>840</v>
@@ -7933,7 +7936,7 @@
         <v>86.2068965517241</v>
       </c>
       <c r="L124">
-        <v>810</v>
+        <v>1085</v>
       </c>
       <c r="M124">
         <v>4392</v>
@@ -7948,19 +7951,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q124" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R124" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T124" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U124" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -7977,7 +7980,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F125">
         <v>840</v>
@@ -7998,7 +8001,7 @@
         <v>86.2068965517241</v>
       </c>
       <c r="L125">
-        <v>810</v>
+        <v>1085</v>
       </c>
       <c r="M125">
         <v>4392</v>
@@ -8013,19 +8016,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q125" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R125" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T125" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U125" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8042,7 +8045,7 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F126">
         <v>0.10529</v>
@@ -8057,7 +8060,7 @@
         <v>1.23201</v>
       </c>
       <c r="L126">
-        <v>0.15518</v>
+        <v>0.28071</v>
       </c>
       <c r="M126">
         <v>0.67689</v>
@@ -8072,19 +8075,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R126" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T126" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U126" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8101,7 +8104,7 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F127">
         <v>0.10529</v>
@@ -8116,7 +8119,7 @@
         <v>1.23201</v>
       </c>
       <c r="L127">
-        <v>0.15518</v>
+        <v>0.28071</v>
       </c>
       <c r="M127">
         <v>0.67689</v>
@@ -8131,19 +8134,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q127" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R127" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S127" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T127" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U127" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8160,7 +8163,7 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F128">
         <v>0.3275</v>
@@ -8175,7 +8178,7 @@
         <v>2.744</v>
       </c>
       <c r="L128">
-        <v>0.08799999999999999</v>
+        <v>0.1375</v>
       </c>
       <c r="M128">
         <v>1.538</v>
@@ -8190,19 +8193,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q128" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R128" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S128" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T128" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U128" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8219,7 +8222,7 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F129">
         <v>0.3275</v>
@@ -8234,7 +8237,7 @@
         <v>2.744</v>
       </c>
       <c r="L129">
-        <v>0.08799999999999999</v>
+        <v>0.1375</v>
       </c>
       <c r="M129">
         <v>1.538</v>
@@ -8249,19 +8252,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q129" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R129" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T129" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U129" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8275,7 +8278,7 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130">
         <v>1.225</v>
@@ -8290,7 +8293,7 @@
         <v>4.028</v>
       </c>
       <c r="L130">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="M130">
         <v>3.03812</v>
@@ -8305,19 +8308,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q130" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R130" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T130" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U130" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8331,7 +8334,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131">
         <v>1.225</v>
@@ -8346,7 +8349,7 @@
         <v>4.028</v>
       </c>
       <c r="L131">
-        <v>0.63</v>
+        <v>1.25</v>
       </c>
       <c r="M131">
         <v>3.03812</v>
@@ -8361,19 +8364,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q131" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R131" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S131" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T131" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U131" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -8387,7 +8390,7 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F132">
         <v>2.275</v>
@@ -8402,7 +8405,7 @@
         <v>5.316</v>
       </c>
       <c r="L132">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="M132">
         <v>4.324</v>
@@ -8417,19 +8420,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q132" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R132" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T132" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U132" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="133" spans="1:21">
@@ -8443,7 +8446,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F133">
         <v>2.275</v>
@@ -8458,7 +8461,7 @@
         <v>5.316</v>
       </c>
       <c r="L133">
-        <v>1.3</v>
+        <v>2.07</v>
       </c>
       <c r="M133">
         <v>4.324</v>
@@ -8473,19 +8476,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q133" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R133" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S133" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U133" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="1:21">
@@ -8499,7 +8502,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F134">
         <v>0.2115</v>
@@ -8514,7 +8517,7 @@
         <v>3.006</v>
       </c>
       <c r="L134">
-        <v>0.343</v>
+        <v>0.352</v>
       </c>
       <c r="M134">
         <v>0.90776</v>
@@ -8529,19 +8532,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q134" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R134" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T134" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U134" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135" spans="1:21">
@@ -8555,7 +8558,7 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F135">
         <v>0.2115</v>
@@ -8570,7 +8573,7 @@
         <v>3.006</v>
       </c>
       <c r="L135">
-        <v>0.343</v>
+        <v>0.352</v>
       </c>
       <c r="M135">
         <v>0.90776</v>
@@ -8585,19 +8588,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q135" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R135" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T135" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U135" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="136" spans="1:21">
@@ -8614,7 +8617,7 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F136">
         <v>0.042</v>
@@ -8644,19 +8647,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q136" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R136" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T136" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U136" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:21">
@@ -8673,7 +8676,7 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F137">
         <v>0.042</v>
@@ -8703,19 +8706,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q137" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R137" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T137" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U137" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="138" spans="1:21">
@@ -8732,7 +8735,7 @@
         <v>52</v>
       </c>
       <c r="E138" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F138">
         <v>720</v>
@@ -8753,7 +8756,7 @@
         <v>82.7586206896552</v>
       </c>
       <c r="L138">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="M138">
         <v>3048</v>
@@ -8768,19 +8771,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q138" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R138" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T138" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U138" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="139" spans="1:21">
@@ -8797,7 +8800,7 @@
         <v>52</v>
       </c>
       <c r="E139" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F139">
         <v>720</v>
@@ -8818,7 +8821,7 @@
         <v>82.7586206896552</v>
       </c>
       <c r="L139">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="M139">
         <v>3048</v>
@@ -8833,19 +8836,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q139" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R139" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T139" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U139" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="140" spans="1:21">
@@ -8862,7 +8865,7 @@
         <v>52</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F140">
         <v>720</v>
@@ -8883,7 +8886,7 @@
         <v>82.7586206896552</v>
       </c>
       <c r="L140">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="M140">
         <v>3048</v>
@@ -8898,19 +8901,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q140" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R140" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T140" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U140" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:21">
@@ -8927,7 +8930,7 @@
         <v>52</v>
       </c>
       <c r="E141" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F141">
         <v>720</v>
@@ -8948,7 +8951,7 @@
         <v>82.7586206896552</v>
       </c>
       <c r="L141">
-        <v>1000</v>
+        <v>1350</v>
       </c>
       <c r="M141">
         <v>3048</v>
@@ -8963,19 +8966,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q141" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R141" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S141" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T141" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U141" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:21">
@@ -8992,7 +8995,7 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F142">
         <v>0.06358999999999999</v>
@@ -9007,7 +9010,7 @@
         <v>1.14029</v>
       </c>
       <c r="L142">
-        <v>0.10323</v>
+        <v>0.08896</v>
       </c>
       <c r="M142">
         <v>0.49988</v>
@@ -9022,19 +9025,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q142" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R142" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S142" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T142" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U142" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:21">
@@ -9051,7 +9054,7 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F143">
         <v>0.06358999999999999</v>
@@ -9066,7 +9069,7 @@
         <v>1.14029</v>
       </c>
       <c r="L143">
-        <v>0.10323</v>
+        <v>0.08896</v>
       </c>
       <c r="M143">
         <v>0.49988</v>
@@ -9081,19 +9084,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q143" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R143" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T143" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U143" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:21">
@@ -9110,13 +9113,13 @@
         <v>52</v>
       </c>
       <c r="E144" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F144">
         <v>0.2835</v>
       </c>
       <c r="G144">
-        <v>0.746616822399917</v>
+        <v>0.746617494118571</v>
       </c>
       <c r="H144">
         <v>4.64</v>
@@ -9125,7 +9128,7 @@
         <v>3.25</v>
       </c>
       <c r="L144">
-        <v>0.114</v>
+        <v>0.1375</v>
       </c>
       <c r="M144">
         <v>1.214</v>
@@ -9140,19 +9143,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q144" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R144" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T144" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U144" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:21">
@@ -9169,13 +9172,13 @@
         <v>52</v>
       </c>
       <c r="E145" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F145">
         <v>0.2835</v>
       </c>
       <c r="G145">
-        <v>0.746616822399917</v>
+        <v>0.746617494118571</v>
       </c>
       <c r="H145">
         <v>4.64</v>
@@ -9184,7 +9187,7 @@
         <v>3.25</v>
       </c>
       <c r="L145">
-        <v>0.114</v>
+        <v>0.1375</v>
       </c>
       <c r="M145">
         <v>1.214</v>
@@ -9199,19 +9202,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q145" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R145" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T145" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U145" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" spans="1:21">
@@ -9225,7 +9228,7 @@
         <v>52</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F146">
         <v>0.99</v>
@@ -9240,7 +9243,7 @@
         <v>4.028</v>
       </c>
       <c r="L146">
-        <v>0.442</v>
+        <v>0.536</v>
       </c>
       <c r="M146">
         <v>2.4556</v>
@@ -9255,19 +9258,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q146" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R146" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T146" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U146" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:21">
@@ -9281,7 +9284,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F147">
         <v>0.99</v>
@@ -9296,7 +9299,7 @@
         <v>4.028</v>
       </c>
       <c r="L147">
-        <v>0.442</v>
+        <v>0.536</v>
       </c>
       <c r="M147">
         <v>2.4556</v>
@@ -9311,19 +9314,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q147" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R147" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T147" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U147" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:21">
@@ -9337,7 +9340,7 @@
         <v>52</v>
       </c>
       <c r="E148" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F148">
         <v>1.84</v>
@@ -9352,7 +9355,7 @@
         <v>4.952</v>
       </c>
       <c r="L148">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M148">
         <v>3.4656</v>
@@ -9367,19 +9370,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q148" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R148" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T148" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:21">
@@ -9393,7 +9396,7 @@
         <v>52</v>
       </c>
       <c r="E149" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>1.84</v>
@@ -9408,7 +9411,7 @@
         <v>4.952</v>
       </c>
       <c r="L149">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="M149">
         <v>3.4656</v>
@@ -9423,19 +9426,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q149" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R149" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T149" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U149" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:21">
@@ -9449,7 +9452,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F150">
         <v>0.158</v>
@@ -9464,7 +9467,7 @@
         <v>1.156</v>
       </c>
       <c r="L150">
-        <v>0.176</v>
+        <v>0.192</v>
       </c>
       <c r="M150">
         <v>0.40908</v>
@@ -9479,19 +9482,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q150" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R150" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T150" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U150" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:21">
@@ -9505,7 +9508,7 @@
         <v>52</v>
       </c>
       <c r="E151" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F151">
         <v>0.158</v>
@@ -9520,7 +9523,7 @@
         <v>1.156</v>
       </c>
       <c r="L151">
-        <v>0.176</v>
+        <v>0.192</v>
       </c>
       <c r="M151">
         <v>0.40908</v>
@@ -9535,19 +9538,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q151" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R151" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S151" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T151" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U151" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="152" spans="1:21">
@@ -9564,7 +9567,7 @@
         <v>53</v>
       </c>
       <c r="E152" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F152">
         <v>0.048</v>
@@ -9579,7 +9582,7 @@
         <v>0.658</v>
       </c>
       <c r="L152">
-        <v>0.083</v>
+        <v>0.06</v>
       </c>
       <c r="M152">
         <v>0.20451</v>
@@ -9594,19 +9597,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q152" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R152" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S152" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T152" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U152" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:21">
@@ -9623,7 +9626,7 @@
         <v>53</v>
       </c>
       <c r="E153" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F153">
         <v>0.048</v>
@@ -9638,7 +9641,7 @@
         <v>0.658</v>
       </c>
       <c r="L153">
-        <v>0.083</v>
+        <v>0.06</v>
       </c>
       <c r="M153">
         <v>0.20451</v>
@@ -9653,19 +9656,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q153" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R153" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T153" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U153" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="154" spans="1:21">
@@ -9682,19 +9685,19 @@
         <v>53</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F154">
         <v>740</v>
       </c>
       <c r="G154">
-        <v>2432.78947368421</v>
+        <v>2432.79298245614</v>
       </c>
       <c r="H154">
         <v>41000</v>
       </c>
       <c r="I154">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J154">
         <v>63.1578947368421</v>
@@ -9703,7 +9706,7 @@
         <v>84.21052631578949</v>
       </c>
       <c r="L154">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="M154">
         <v>3786</v>
@@ -9718,19 +9721,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q154" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R154" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S154" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T154" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U154" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" spans="1:21">
@@ -9747,19 +9750,19 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>740</v>
       </c>
       <c r="G155">
-        <v>2432.78947368421</v>
+        <v>2432.79298245614</v>
       </c>
       <c r="H155">
         <v>41000</v>
       </c>
       <c r="I155">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J155">
         <v>63.1578947368421</v>
@@ -9768,7 +9771,7 @@
         <v>84.21052631578949</v>
       </c>
       <c r="L155">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="M155">
         <v>3786</v>
@@ -9783,19 +9786,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q155" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R155" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T155" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U155" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="156" spans="1:21">
@@ -9812,19 +9815,19 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F156">
         <v>740</v>
       </c>
       <c r="G156">
-        <v>2432.78947368421</v>
+        <v>2432.79298245614</v>
       </c>
       <c r="H156">
         <v>41000</v>
       </c>
       <c r="I156">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J156">
         <v>63.1578947368421</v>
@@ -9833,7 +9836,7 @@
         <v>84.21052631578949</v>
       </c>
       <c r="L156">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="M156">
         <v>3786</v>
@@ -9848,19 +9851,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q156" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R156" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T156" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U156" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="157" spans="1:21">
@@ -9877,19 +9880,19 @@
         <v>53</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F157">
         <v>740</v>
       </c>
       <c r="G157">
-        <v>2432.78947368421</v>
+        <v>2432.79298245614</v>
       </c>
       <c r="H157">
         <v>41000</v>
       </c>
       <c r="I157">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J157">
         <v>63.1578947368421</v>
@@ -9898,7 +9901,7 @@
         <v>84.21052631578949</v>
       </c>
       <c r="L157">
-        <v>1350</v>
+        <v>1300</v>
       </c>
       <c r="M157">
         <v>3786</v>
@@ -9913,19 +9916,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q157" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R157" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T157" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U157" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="158" spans="1:21">
@@ -9942,7 +9945,7 @@
         <v>53</v>
       </c>
       <c r="E158" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F158">
         <v>0.06351999999999999</v>
@@ -9957,7 +9960,7 @@
         <v>1.04246</v>
       </c>
       <c r="L158">
-        <v>0.10343</v>
+        <v>0.10302</v>
       </c>
       <c r="M158">
         <v>0.57234</v>
@@ -9972,19 +9975,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q158" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R158" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S158" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T158" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U158" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="159" spans="1:21">
@@ -10001,7 +10004,7 @@
         <v>53</v>
       </c>
       <c r="E159" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F159">
         <v>0.06351999999999999</v>
@@ -10016,7 +10019,7 @@
         <v>1.04246</v>
       </c>
       <c r="L159">
-        <v>0.10343</v>
+        <v>0.10302</v>
       </c>
       <c r="M159">
         <v>0.57234</v>
@@ -10031,19 +10034,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q159" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R159" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T159" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U159" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:21">
@@ -10060,13 +10063,13 @@
         <v>53</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F160">
         <v>0.243</v>
       </c>
       <c r="G160">
-        <v>0.698890801740266</v>
+        <v>0.698891485243458</v>
       </c>
       <c r="H160">
         <v>4.64</v>
@@ -10075,7 +10078,7 @@
         <v>3.1885</v>
       </c>
       <c r="L160">
-        <v>0.1275</v>
+        <v>0.137</v>
       </c>
       <c r="M160">
         <v>1.1324</v>
@@ -10090,19 +10093,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q160" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R160" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T160" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U160" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="1:21">
@@ -10119,13 +10122,13 @@
         <v>53</v>
       </c>
       <c r="E161" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F161">
         <v>0.243</v>
       </c>
       <c r="G161">
-        <v>0.698890801740266</v>
+        <v>0.698891485243458</v>
       </c>
       <c r="H161">
         <v>4.64</v>
@@ -10134,7 +10137,7 @@
         <v>3.1885</v>
       </c>
       <c r="L161">
-        <v>0.1275</v>
+        <v>0.137</v>
       </c>
       <c r="M161">
         <v>1.1324</v>
@@ -10149,19 +10152,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q161" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R161" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T161" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U161" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:21">
@@ -10175,7 +10178,7 @@
         <v>53</v>
       </c>
       <c r="E162" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F162">
         <v>0.736</v>
@@ -10190,7 +10193,7 @@
         <v>4.032</v>
       </c>
       <c r="L162">
-        <v>0.5585</v>
+        <v>0.442</v>
       </c>
       <c r="M162">
         <v>2.5839</v>
@@ -10205,19 +10208,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q162" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R162" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S162" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T162" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U162" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="163" spans="1:21">
@@ -10231,7 +10234,7 @@
         <v>53</v>
       </c>
       <c r="E163" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F163">
         <v>0.736</v>
@@ -10246,7 +10249,7 @@
         <v>4.032</v>
       </c>
       <c r="L163">
-        <v>0.5585</v>
+        <v>0.442</v>
       </c>
       <c r="M163">
         <v>2.5839</v>
@@ -10261,19 +10264,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q163" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R163" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S163" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T163" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U163" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="164" spans="1:21">
@@ -10287,7 +10290,7 @@
         <v>53</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F164">
         <v>1.64</v>
@@ -10302,7 +10305,7 @@
         <v>4.831</v>
       </c>
       <c r="L164">
-        <v>1.215</v>
+        <v>1.16</v>
       </c>
       <c r="M164">
         <v>3.4921</v>
@@ -10317,19 +10320,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q164" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R164" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S164" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T164" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U164" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="165" spans="1:21">
@@ -10343,7 +10346,7 @@
         <v>53</v>
       </c>
       <c r="E165" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F165">
         <v>1.64</v>
@@ -10358,7 +10361,7 @@
         <v>4.831</v>
       </c>
       <c r="L165">
-        <v>1.215</v>
+        <v>1.16</v>
       </c>
       <c r="M165">
         <v>3.4921</v>
@@ -10373,19 +10376,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q165" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R165" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S165" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T165" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U165" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="166" spans="1:21">
@@ -10399,7 +10402,7 @@
         <v>53</v>
       </c>
       <c r="E166" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F166">
         <v>0.147</v>
@@ -10414,7 +10417,7 @@
         <v>1.1565</v>
       </c>
       <c r="L166">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="M166">
         <v>0.41282</v>
@@ -10429,19 +10432,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q166" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R166" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T166" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U166" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="167" spans="1:21">
@@ -10455,7 +10458,7 @@
         <v>53</v>
       </c>
       <c r="E167" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F167">
         <v>0.147</v>
@@ -10470,7 +10473,7 @@
         <v>1.1565</v>
       </c>
       <c r="L167">
-        <v>0.205</v>
+        <v>0.208</v>
       </c>
       <c r="M167">
         <v>0.41282</v>
@@ -10485,19 +10488,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q167" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R167" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S167" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T167" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U167" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="168" spans="1:21">
@@ -10514,7 +10517,7 @@
         <v>54</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F168">
         <v>0.045</v>
@@ -10529,7 +10532,7 @@
         <v>0.6721</v>
       </c>
       <c r="L168">
-        <v>0.0555</v>
+        <v>0.049</v>
       </c>
       <c r="M168">
         <v>0.12053</v>
@@ -10544,19 +10547,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q168" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R168" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S168" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T168" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U168" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:21">
@@ -10573,7 +10576,7 @@
         <v>54</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F169">
         <v>0.045</v>
@@ -10588,7 +10591,7 @@
         <v>0.6721</v>
       </c>
       <c r="L169">
-        <v>0.0555</v>
+        <v>0.049</v>
       </c>
       <c r="M169">
         <v>0.12053</v>
@@ -10603,19 +10606,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q169" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R169" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S169" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T169" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U169" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="170" spans="1:21">
@@ -10632,19 +10635,19 @@
         <v>54</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F170">
         <v>550</v>
       </c>
       <c r="G170">
-        <v>2143.84210526316</v>
+        <v>2143.86666666667</v>
       </c>
       <c r="H170">
         <v>41000</v>
       </c>
       <c r="I170">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J170">
         <v>50.8771929824561</v>
@@ -10653,7 +10656,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L170">
-        <v>1115</v>
+        <v>1000</v>
       </c>
       <c r="M170">
         <v>2424</v>
@@ -10668,19 +10671,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q170" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R170" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S170" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T170" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U170" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:21">
@@ -10697,19 +10700,19 @@
         <v>54</v>
       </c>
       <c r="E171" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F171">
         <v>550</v>
       </c>
       <c r="G171">
-        <v>2143.84210526316</v>
+        <v>2143.86666666667</v>
       </c>
       <c r="H171">
         <v>41000</v>
       </c>
       <c r="I171">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J171">
         <v>50.8771929824561</v>
@@ -10718,7 +10721,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L171">
-        <v>1115</v>
+        <v>1000</v>
       </c>
       <c r="M171">
         <v>2424</v>
@@ -10733,19 +10736,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q171" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R171" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S171" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T171" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U171" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:21">
@@ -10762,19 +10765,19 @@
         <v>54</v>
       </c>
       <c r="E172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F172">
         <v>550</v>
       </c>
       <c r="G172">
-        <v>2143.84210526316</v>
+        <v>2143.86666666667</v>
       </c>
       <c r="H172">
         <v>41000</v>
       </c>
       <c r="I172">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J172">
         <v>50.8771929824561</v>
@@ -10783,7 +10786,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L172">
-        <v>1115</v>
+        <v>1000</v>
       </c>
       <c r="M172">
         <v>2424</v>
@@ -10798,19 +10801,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q172" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R172" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S172" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T172" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U172" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:21">
@@ -10827,19 +10830,19 @@
         <v>54</v>
       </c>
       <c r="E173" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F173">
         <v>550</v>
       </c>
       <c r="G173">
-        <v>2143.84210526316</v>
+        <v>2143.86666666667</v>
       </c>
       <c r="H173">
         <v>41000</v>
       </c>
       <c r="I173">
-        <v>7561.2</v>
+        <v>7561.06</v>
       </c>
       <c r="J173">
         <v>50.8771929824561</v>
@@ -10848,7 +10851,7 @@
         <v>71.92982456140351</v>
       </c>
       <c r="L173">
-        <v>1115</v>
+        <v>1000</v>
       </c>
       <c r="M173">
         <v>2424</v>
@@ -10863,19 +10866,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q173" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R173" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S173" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T173" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U173" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:21">
@@ -10892,7 +10895,7 @@
         <v>54</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F174">
         <v>0.06222</v>
@@ -10907,7 +10910,7 @@
         <v>1.03894</v>
       </c>
       <c r="L174">
-        <v>0.09723999999999999</v>
+        <v>0.07907</v>
       </c>
       <c r="M174">
         <v>0.55171</v>
@@ -10922,19 +10925,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q174" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R174" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T174" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U174" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:21">
@@ -10951,7 +10954,7 @@
         <v>54</v>
       </c>
       <c r="E175" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F175">
         <v>0.06222</v>
@@ -10966,7 +10969,7 @@
         <v>1.03894</v>
       </c>
       <c r="L175">
-        <v>0.09723999999999999</v>
+        <v>0.07907</v>
       </c>
       <c r="M175">
         <v>0.55171</v>
@@ -10981,19 +10984,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q175" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R175" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T175" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U175" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:21">
@@ -11010,13 +11013,13 @@
         <v>54</v>
       </c>
       <c r="E176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>0.251</v>
       </c>
       <c r="G176">
-        <v>0.674732907003424</v>
+        <v>0.674733590506616</v>
       </c>
       <c r="H176">
         <v>4.64</v>
@@ -11025,7 +11028,7 @@
         <v>3.1885</v>
       </c>
       <c r="L176">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="M176">
         <v>1.1305</v>
@@ -11040,19 +11043,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q176" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R176" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S176" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T176" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U176" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" spans="1:21">
@@ -11069,13 +11072,13 @@
         <v>54</v>
       </c>
       <c r="E177" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F177">
         <v>0.251</v>
       </c>
       <c r="G177">
-        <v>0.674732907003424</v>
+        <v>0.674733590506616</v>
       </c>
       <c r="H177">
         <v>4.64</v>
@@ -11084,7 +11087,7 @@
         <v>3.1885</v>
       </c>
       <c r="L177">
-        <v>0.172</v>
+        <v>0.171</v>
       </c>
       <c r="M177">
         <v>1.1305</v>
@@ -11099,19 +11102,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q177" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R177" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S177" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T177" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U177" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="178" spans="1:21">
@@ -11125,7 +11128,7 @@
         <v>54</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F178">
         <v>0.487</v>
@@ -11140,7 +11143,7 @@
         <v>4.032</v>
       </c>
       <c r="L178">
-        <v>0.4645</v>
+        <v>0.429</v>
       </c>
       <c r="M178">
         <v>2.6362</v>
@@ -11155,19 +11158,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q178" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R178" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S178" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T178" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U178" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="179" spans="1:21">
@@ -11181,7 +11184,7 @@
         <v>54</v>
       </c>
       <c r="E179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F179">
         <v>0.487</v>
@@ -11196,7 +11199,7 @@
         <v>4.032</v>
       </c>
       <c r="L179">
-        <v>0.4645</v>
+        <v>0.429</v>
       </c>
       <c r="M179">
         <v>2.6362</v>
@@ -11211,19 +11214,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q179" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R179" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S179" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T179" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U179" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="1:21">
@@ -11237,7 +11240,7 @@
         <v>54</v>
       </c>
       <c r="E180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>1.26</v>
@@ -11252,7 +11255,7 @@
         <v>5.218</v>
       </c>
       <c r="L180">
-        <v>1.105</v>
+        <v>1.06</v>
       </c>
       <c r="M180">
         <v>3.5407</v>
@@ -11267,19 +11270,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R180" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T180" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U180" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:21">
@@ -11293,7 +11296,7 @@
         <v>54</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F181">
         <v>1.26</v>
@@ -11308,7 +11311,7 @@
         <v>5.218</v>
       </c>
       <c r="L181">
-        <v>1.105</v>
+        <v>1.06</v>
       </c>
       <c r="M181">
         <v>3.5407</v>
@@ -11323,19 +11326,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q181" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R181" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S181" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T181" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U181" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:21">
@@ -11349,7 +11352,7 @@
         <v>54</v>
       </c>
       <c r="E182" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F182">
         <v>0.139</v>
@@ -11364,7 +11367,7 @@
         <v>0.98445</v>
       </c>
       <c r="L182">
-        <v>0.159</v>
+        <v>0.161</v>
       </c>
       <c r="M182">
         <v>0.37701</v>
@@ -11379,19 +11382,19 @@
         <v>5554500.976</v>
       </c>
       <c r="Q182" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S182" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T182" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U182" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="1:21">
@@ -11405,7 +11408,7 @@
         <v>54</v>
       </c>
       <c r="E183" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F183">
         <v>0.139</v>
@@ -11420,7 +11423,7 @@
         <v>0.98445</v>
       </c>
       <c r="L183">
-        <v>0.159</v>
+        <v>0.161</v>
       </c>
       <c r="M183">
         <v>0.37701</v>
@@ -11435,19 +11438,969 @@
         <v>5554500.976</v>
       </c>
       <c r="Q183" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R183" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S183" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T183" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
+      <c r="A184" t="s">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>40</v>
+      </c>
+      <c r="D184" t="s">
+        <v>55</v>
+      </c>
+      <c r="E184" t="s">
+        <v>56</v>
+      </c>
+      <c r="F184">
+        <v>0.047</v>
+      </c>
+      <c r="G184">
+        <v>0.143543859649123</v>
+      </c>
+      <c r="H184">
+        <v>1.57</v>
+      </c>
+      <c r="I184">
+        <v>0.6721</v>
+      </c>
+      <c r="L184">
+        <v>0.047</v>
+      </c>
+      <c r="M184">
+        <v>0.231</v>
+      </c>
+      <c r="N184">
+        <v>0.40878</v>
+      </c>
+      <c r="O184">
+        <v>1811681.523</v>
+      </c>
+      <c r="P184">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>57</v>
+      </c>
+      <c r="R184" t="s">
+        <v>58</v>
+      </c>
+      <c r="S184" t="s">
+        <v>59</v>
+      </c>
+      <c r="T184" t="s">
+        <v>60</v>
+      </c>
+      <c r="U184" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
+      <c r="A185" t="s">
+        <v>21</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>55</v>
+      </c>
+      <c r="E185" t="s">
+        <v>56</v>
+      </c>
+      <c r="F185">
+        <v>0.047</v>
+      </c>
+      <c r="G185">
+        <v>0.143543859649123</v>
+      </c>
+      <c r="H185">
+        <v>1.57</v>
+      </c>
+      <c r="I185">
+        <v>0.6721</v>
+      </c>
+      <c r="L185">
+        <v>0.047</v>
+      </c>
+      <c r="M185">
+        <v>0.231</v>
+      </c>
+      <c r="N185">
+        <v>0.40878</v>
+      </c>
+      <c r="O185">
+        <v>1811681.523</v>
+      </c>
+      <c r="P185">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>57</v>
+      </c>
+      <c r="R185" t="s">
+        <v>58</v>
+      </c>
+      <c r="S185" t="s">
+        <v>59</v>
+      </c>
+      <c r="T185" t="s">
+        <v>60</v>
+      </c>
+      <c r="U185" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
+      <c r="A186" t="s">
+        <v>21</v>
+      </c>
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>41</v>
+      </c>
+      <c r="D186" t="s">
+        <v>55</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186">
+        <v>480.4</v>
+      </c>
+      <c r="G186">
+        <v>2297.01052631579</v>
+      </c>
+      <c r="H186">
+        <v>41000</v>
+      </c>
+      <c r="I186">
+        <v>11566</v>
+      </c>
+      <c r="J186">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K186">
+        <v>68.4210526315789</v>
+      </c>
+      <c r="L186">
+        <v>1000</v>
+      </c>
+      <c r="M186">
+        <v>2465.344</v>
+      </c>
+      <c r="N186">
+        <v>6803.704</v>
+      </c>
+      <c r="O186">
+        <v>1811681.523</v>
+      </c>
+      <c r="P186">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>57</v>
+      </c>
+      <c r="R186" t="s">
+        <v>58</v>
+      </c>
+      <c r="S186" t="s">
+        <v>59</v>
+      </c>
+      <c r="T186" t="s">
+        <v>60</v>
+      </c>
+      <c r="U186" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
+      <c r="A187" t="s">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>26</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>55</v>
+      </c>
+      <c r="E187" t="s">
+        <v>56</v>
+      </c>
+      <c r="F187">
+        <v>480.4</v>
+      </c>
+      <c r="G187">
+        <v>2297.01052631579</v>
+      </c>
+      <c r="H187">
+        <v>41000</v>
+      </c>
+      <c r="I187">
+        <v>11566</v>
+      </c>
+      <c r="J187">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K187">
+        <v>68.4210526315789</v>
+      </c>
+      <c r="L187">
+        <v>1000</v>
+      </c>
+      <c r="M187">
+        <v>2465.344</v>
+      </c>
+      <c r="N187">
+        <v>6803.704</v>
+      </c>
+      <c r="O187">
+        <v>1811681.523</v>
+      </c>
+      <c r="P187">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>57</v>
+      </c>
+      <c r="R187" t="s">
+        <v>58</v>
+      </c>
+      <c r="S187" t="s">
+        <v>59</v>
+      </c>
+      <c r="T187" t="s">
+        <v>60</v>
+      </c>
+      <c r="U187" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
+      <c r="A188" t="s">
+        <v>21</v>
+      </c>
+      <c r="B188" t="s">
+        <v>27</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" t="s">
+        <v>56</v>
+      </c>
+      <c r="F188">
+        <v>480.4</v>
+      </c>
+      <c r="G188">
+        <v>2297.01052631579</v>
+      </c>
+      <c r="H188">
+        <v>41000</v>
+      </c>
+      <c r="I188">
+        <v>11566</v>
+      </c>
+      <c r="J188">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K188">
+        <v>68.4210526315789</v>
+      </c>
+      <c r="L188">
+        <v>1000</v>
+      </c>
+      <c r="M188">
+        <v>2465.344</v>
+      </c>
+      <c r="N188">
+        <v>6803.704</v>
+      </c>
+      <c r="O188">
+        <v>1811681.523</v>
+      </c>
+      <c r="P188">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>58</v>
+      </c>
+      <c r="S188" t="s">
+        <v>59</v>
+      </c>
+      <c r="T188" t="s">
+        <v>60</v>
+      </c>
+      <c r="U188" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
+      <c r="A189" t="s">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" t="s">
+        <v>55</v>
+      </c>
+      <c r="E189" t="s">
+        <v>56</v>
+      </c>
+      <c r="F189">
+        <v>480.4</v>
+      </c>
+      <c r="G189">
+        <v>2297.01052631579</v>
+      </c>
+      <c r="H189">
+        <v>41000</v>
+      </c>
+      <c r="I189">
+        <v>11566</v>
+      </c>
+      <c r="J189">
+        <v>47.3684210526316</v>
+      </c>
+      <c r="K189">
+        <v>68.4210526315789</v>
+      </c>
+      <c r="L189">
+        <v>1000</v>
+      </c>
+      <c r="M189">
+        <v>2465.344</v>
+      </c>
+      <c r="N189">
+        <v>6803.704</v>
+      </c>
+      <c r="O189">
+        <v>1811681.523</v>
+      </c>
+      <c r="P189">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>57</v>
+      </c>
+      <c r="R189" t="s">
+        <v>58</v>
+      </c>
+      <c r="S189" t="s">
+        <v>59</v>
+      </c>
+      <c r="T189" t="s">
+        <v>60</v>
+      </c>
+      <c r="U189" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
+      <c r="A190" t="s">
+        <v>21</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="s">
+        <v>42</v>
+      </c>
+      <c r="D190" t="s">
+        <v>55</v>
+      </c>
+      <c r="E190" t="s">
+        <v>56</v>
+      </c>
+      <c r="F190">
+        <v>0.06222</v>
+      </c>
+      <c r="G190">
+        <v>0.257900406927503</v>
+      </c>
+      <c r="H190">
+        <v>2.71906648967442</v>
+      </c>
+      <c r="I190">
+        <v>0.91852</v>
+      </c>
+      <c r="L190">
+        <v>0.07323</v>
+      </c>
+      <c r="M190">
+        <v>0.61446</v>
+      </c>
+      <c r="N190">
+        <v>0.88993</v>
+      </c>
+      <c r="O190">
+        <v>1811681.523</v>
+      </c>
+      <c r="P190">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>57</v>
+      </c>
+      <c r="R190" t="s">
+        <v>58</v>
+      </c>
+      <c r="S190" t="s">
+        <v>59</v>
+      </c>
+      <c r="T190" t="s">
+        <v>60</v>
+      </c>
+      <c r="U190" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
+      <c r="A191" t="s">
+        <v>21</v>
+      </c>
+      <c r="B191" t="s">
+        <v>30</v>
+      </c>
+      <c r="C191" t="s">
+        <v>43</v>
+      </c>
+      <c r="D191" t="s">
+        <v>55</v>
+      </c>
+      <c r="E191" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191">
+        <v>0.06222</v>
+      </c>
+      <c r="G191">
+        <v>0.257900406927503</v>
+      </c>
+      <c r="H191">
+        <v>2.71906648967442</v>
+      </c>
+      <c r="I191">
+        <v>0.91852</v>
+      </c>
+      <c r="L191">
+        <v>0.07323</v>
+      </c>
+      <c r="M191">
+        <v>0.61446</v>
+      </c>
+      <c r="N191">
+        <v>0.88993</v>
+      </c>
+      <c r="O191">
+        <v>1811681.523</v>
+      </c>
+      <c r="P191">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>58</v>
+      </c>
+      <c r="S191" t="s">
+        <v>59</v>
+      </c>
+      <c r="T191" t="s">
+        <v>60</v>
+      </c>
+      <c r="U191" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
+      <c r="A192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B192" t="s">
+        <v>31</v>
+      </c>
+      <c r="C192" t="s">
+        <v>43</v>
+      </c>
+      <c r="D192" t="s">
+        <v>55</v>
+      </c>
+      <c r="E192" t="s">
+        <v>56</v>
+      </c>
+      <c r="F192">
+        <v>0.272</v>
+      </c>
+      <c r="G192">
+        <v>0.647786222085564</v>
+      </c>
+      <c r="H192">
+        <v>4.64</v>
+      </c>
+      <c r="I192">
+        <v>3.143</v>
+      </c>
+      <c r="L192">
+        <v>0.161</v>
+      </c>
+      <c r="M192">
+        <v>1.02998</v>
+      </c>
+      <c r="N192">
+        <v>2.531</v>
+      </c>
+      <c r="O192">
+        <v>1811681.523</v>
+      </c>
+      <c r="P192">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>57</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>59</v>
+      </c>
+      <c r="T192" t="s">
+        <v>60</v>
+      </c>
+      <c r="U192" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" t="s">
+        <v>21</v>
+      </c>
+      <c r="B193" t="s">
+        <v>32</v>
+      </c>
+      <c r="C193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s">
+        <v>55</v>
+      </c>
+      <c r="E193" t="s">
+        <v>56</v>
+      </c>
+      <c r="F193">
+        <v>0.272</v>
+      </c>
+      <c r="G193">
+        <v>0.647786222085564</v>
+      </c>
+      <c r="H193">
+        <v>4.64</v>
+      </c>
+      <c r="I193">
+        <v>3.143</v>
+      </c>
+      <c r="L193">
+        <v>0.161</v>
+      </c>
+      <c r="M193">
+        <v>1.02998</v>
+      </c>
+      <c r="N193">
+        <v>2.531</v>
+      </c>
+      <c r="O193">
+        <v>1811681.523</v>
+      </c>
+      <c r="P193">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>57</v>
+      </c>
+      <c r="R193" t="s">
+        <v>58</v>
+      </c>
+      <c r="S193" t="s">
+        <v>59</v>
+      </c>
+      <c r="T193" t="s">
+        <v>60</v>
+      </c>
+      <c r="U193" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" t="s">
+        <v>21</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="D194" t="s">
+        <v>55</v>
+      </c>
+      <c r="E194" t="s">
+        <v>56</v>
+      </c>
+      <c r="F194">
+        <v>0.51</v>
+      </c>
+      <c r="G194">
+        <v>1.2859298245614</v>
+      </c>
+      <c r="H194">
+        <v>7.11</v>
+      </c>
+      <c r="I194">
+        <v>3.5122</v>
+      </c>
+      <c r="L194">
+        <v>0.436</v>
+      </c>
+      <c r="M194">
+        <v>2.6362</v>
+      </c>
+      <c r="N194">
+        <v>3.13272</v>
+      </c>
+      <c r="O194">
+        <v>1811681.523</v>
+      </c>
+      <c r="P194">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>57</v>
+      </c>
+      <c r="R194" t="s">
+        <v>58</v>
+      </c>
+      <c r="S194" t="s">
+        <v>59</v>
+      </c>
+      <c r="T194" t="s">
+        <v>60</v>
+      </c>
+      <c r="U194" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" t="s">
+        <v>21</v>
+      </c>
+      <c r="B195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195" t="s">
+        <v>55</v>
+      </c>
+      <c r="E195" t="s">
+        <v>56</v>
+      </c>
+      <c r="F195">
+        <v>0.51</v>
+      </c>
+      <c r="G195">
+        <v>1.2859298245614</v>
+      </c>
+      <c r="H195">
+        <v>7.11</v>
+      </c>
+      <c r="I195">
+        <v>3.5122</v>
+      </c>
+      <c r="L195">
+        <v>0.436</v>
+      </c>
+      <c r="M195">
+        <v>2.6362</v>
+      </c>
+      <c r="N195">
+        <v>3.13272</v>
+      </c>
+      <c r="O195">
+        <v>1811681.523</v>
+      </c>
+      <c r="P195">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>57</v>
+      </c>
+      <c r="R195" t="s">
+        <v>58</v>
+      </c>
+      <c r="S195" t="s">
+        <v>59</v>
+      </c>
+      <c r="T195" t="s">
+        <v>60</v>
+      </c>
+      <c r="U195" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="A196" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" t="s">
+        <v>35</v>
+      </c>
+      <c r="D196" t="s">
+        <v>55</v>
+      </c>
+      <c r="E196" t="s">
+        <v>56</v>
+      </c>
+      <c r="F196">
+        <v>1.45</v>
+      </c>
+      <c r="G196">
+        <v>2.1140350877193</v>
+      </c>
+      <c r="H196">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="I196">
+        <v>5.1865</v>
+      </c>
+      <c r="L196">
+        <v>1.16</v>
+      </c>
+      <c r="M196">
+        <v>3.5407</v>
+      </c>
+      <c r="N196">
+        <v>4.3316</v>
+      </c>
+      <c r="O196">
+        <v>1811681.523</v>
+      </c>
+      <c r="P196">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>57</v>
+      </c>
+      <c r="R196" t="s">
+        <v>58</v>
+      </c>
+      <c r="S196" t="s">
+        <v>59</v>
+      </c>
+      <c r="T196" t="s">
+        <v>60</v>
+      </c>
+      <c r="U196" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" t="s">
+        <v>21</v>
+      </c>
+      <c r="B197" t="s">
+        <v>36</v>
+      </c>
+      <c r="D197" t="s">
+        <v>55</v>
+      </c>
+      <c r="E197" t="s">
+        <v>56</v>
+      </c>
+      <c r="F197">
+        <v>1.45</v>
+      </c>
+      <c r="G197">
+        <v>2.1140350877193</v>
+      </c>
+      <c r="H197">
+        <v>8.619999999999999</v>
+      </c>
+      <c r="I197">
+        <v>5.1865</v>
+      </c>
+      <c r="L197">
+        <v>1.16</v>
+      </c>
+      <c r="M197">
+        <v>3.5407</v>
+      </c>
+      <c r="N197">
+        <v>4.3316</v>
+      </c>
+      <c r="O197">
+        <v>1811681.523</v>
+      </c>
+      <c r="P197">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>57</v>
+      </c>
+      <c r="R197" t="s">
+        <v>58</v>
+      </c>
+      <c r="S197" t="s">
+        <v>59</v>
+      </c>
+      <c r="T197" t="s">
+        <v>60</v>
+      </c>
+      <c r="U197" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>37</v>
+      </c>
+      <c r="D198" t="s">
+        <v>55</v>
+      </c>
+      <c r="E198" t="s">
+        <v>56</v>
+      </c>
+      <c r="F198">
+        <v>0.152</v>
+      </c>
+      <c r="G198">
+        <v>0.293473684210526</v>
+      </c>
+      <c r="H198">
+        <v>1.97</v>
+      </c>
+      <c r="I198">
+        <v>0.98445</v>
+      </c>
+      <c r="L198">
+        <v>0.202</v>
+      </c>
+      <c r="M198">
+        <v>0.4653</v>
+      </c>
+      <c r="N198">
+        <v>0.64858</v>
+      </c>
+      <c r="O198">
+        <v>1811681.523</v>
+      </c>
+      <c r="P198">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>57</v>
+      </c>
+      <c r="R198" t="s">
+        <v>58</v>
+      </c>
+      <c r="S198" t="s">
+        <v>59</v>
+      </c>
+      <c r="T198" t="s">
+        <v>60</v>
+      </c>
+      <c r="U198" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="A199" t="s">
+        <v>21</v>
+      </c>
+      <c r="B199" t="s">
+        <v>38</v>
+      </c>
+      <c r="D199" t="s">
+        <v>55</v>
+      </c>
+      <c r="E199" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199">
+        <v>0.152</v>
+      </c>
+      <c r="G199">
+        <v>0.293473684210526</v>
+      </c>
+      <c r="H199">
+        <v>1.97</v>
+      </c>
+      <c r="I199">
+        <v>0.98445</v>
+      </c>
+      <c r="L199">
+        <v>0.202</v>
+      </c>
+      <c r="M199">
+        <v>0.4653</v>
+      </c>
+      <c r="N199">
+        <v>0.64858</v>
+      </c>
+      <c r="O199">
+        <v>1811681.523</v>
+      </c>
+      <c r="P199">
+        <v>5554500.976</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>57</v>
+      </c>
+      <c r="R199" t="s">
+        <v>58</v>
+      </c>
+      <c r="S199" t="s">
+        <v>59</v>
+      </c>
+      <c r="T199" t="s">
+        <v>60</v>
+      </c>
+      <c r="U199" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
